--- a/a_data.xlsx
+++ b/a_data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="20">
   <si>
     <t>Year/Month</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Avg Relative Humidity</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -159,6 +162,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -475,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,9 +493,10 @@
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -505,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -514,5236 +522,5026 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>32874</v>
+      </c>
+      <c r="B2">
+        <v>32.829032258064515</v>
+      </c>
+      <c r="C2">
+        <v>17.306451612903221</v>
+      </c>
+      <c r="D2">
+        <v>12.2</v>
+      </c>
+      <c r="E2">
+        <v>41.269740543754146</v>
+      </c>
+      <c r="F2">
+        <v>5.4838709677419351</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="6">
+        <v>32905</v>
       </c>
       <c r="B3">
-        <v>32.829032258064515</v>
+        <v>35.521428571428579</v>
       </c>
       <c r="C3">
-        <v>17.306451612903221</v>
+        <v>20.492857142857154</v>
       </c>
       <c r="D3">
-        <v>12.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E3">
-        <v>41.269740543754146</v>
+        <v>41.958609447649721</v>
       </c>
       <c r="F3">
-        <v>5.4838709677419351</v>
+        <v>8.1785714285714288</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
+      <c r="A4" s="6">
+        <v>32933</v>
       </c>
       <c r="B4">
-        <v>35.521428571428579</v>
+        <v>37.103225806451611</v>
       </c>
       <c r="C4">
-        <v>20.492857142857154</v>
+        <v>23.945161290322584</v>
       </c>
       <c r="D4">
-        <v>17.899999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="E4">
-        <v>41.958609447649721</v>
+        <v>47.328226119052289</v>
       </c>
       <c r="F4">
-        <v>8.1785714285714288</v>
+        <v>7.4516129032258061</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
+      <c r="A5" s="6">
+        <v>32964</v>
       </c>
       <c r="B5">
-        <v>37.103225806451611</v>
+        <v>38.283333333333339</v>
       </c>
       <c r="C5">
-        <v>23.945161290322584</v>
+        <v>25.196666666666662</v>
       </c>
       <c r="D5">
-        <v>15.4</v>
+        <v>87</v>
       </c>
       <c r="E5">
-        <v>47.328226119052289</v>
+        <v>47.91840977954574</v>
       </c>
       <c r="F5">
-        <v>7.4516129032258061</v>
+        <v>6.4666666666666668</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
+      <c r="A6" s="6">
+        <v>32994</v>
       </c>
       <c r="B6">
-        <v>38.283333333333339</v>
+        <v>36.763333333333335</v>
       </c>
       <c r="C6">
-        <v>25.196666666666662</v>
+        <v>24.57096774193549</v>
       </c>
       <c r="D6">
-        <v>87</v>
+        <v>75.199999999999989</v>
       </c>
       <c r="E6">
-        <v>47.91840977954574</v>
+        <v>50.272517015082386</v>
       </c>
       <c r="F6">
-        <v>6.4666666666666668</v>
+        <v>5.419354838709677</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6">
+        <v>33025</v>
+      </c>
+      <c r="B7">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="C7">
+        <v>23.866666666666671</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>49.52438015808734</v>
+      </c>
+      <c r="F7">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>33055</v>
+      </c>
+      <c r="B8">
+        <v>34.658064516129045</v>
+      </c>
+      <c r="C8">
+        <v>22.816129032258072</v>
+      </c>
+      <c r="D8">
+        <v>138.00000000000003</v>
+      </c>
+      <c r="E8">
+        <v>50.483493284418913</v>
+      </c>
+      <c r="F8">
+        <v>6.354838709677419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>33086</v>
+      </c>
+      <c r="B9">
+        <v>33.770967741935493</v>
+      </c>
+      <c r="C9">
+        <v>22.496774193548386</v>
+      </c>
+      <c r="D9">
+        <v>151.60000000000002</v>
+      </c>
+      <c r="E9">
+        <v>52.248605468889338</v>
+      </c>
+      <c r="F9">
+        <v>8.2903225806451619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>33117</v>
+      </c>
+      <c r="B10">
+        <v>33.970000000000006</v>
+      </c>
+      <c r="C10">
+        <v>22.716666666666665</v>
+      </c>
+      <c r="D10">
+        <v>173.4</v>
+      </c>
+      <c r="E10">
+        <v>52.20219438259322</v>
+      </c>
+      <c r="F10">
+        <v>5.3666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>33147</v>
+      </c>
+      <c r="B11">
+        <v>33.035483870967745</v>
+      </c>
+      <c r="C11">
+        <v>22.280645161290323</v>
+      </c>
+      <c r="D11">
+        <v>62.599999999999994</v>
+      </c>
+      <c r="E11">
+        <v>53.991902564892868</v>
+      </c>
+      <c r="F11">
+        <v>6.354838709677419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>33178</v>
+      </c>
+      <c r="B12">
+        <v>31.955172413793097</v>
+      </c>
+      <c r="C12">
+        <v>20.546666666666667</v>
+      </c>
+      <c r="D12">
+        <v>64.8</v>
+      </c>
+      <c r="E12">
+        <v>51.59956421530552</v>
+      </c>
+      <c r="F12">
+        <v>9.0333333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>33208</v>
+      </c>
+      <c r="B13">
+        <v>32.064516129032256</v>
+      </c>
+      <c r="C13">
+        <v>19.467741935483872</v>
+      </c>
+      <c r="D13">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="E13">
+        <v>47.745946398013018</v>
+      </c>
+      <c r="F13">
+        <v>9.5161290322580641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>33239</v>
+      </c>
+      <c r="B14">
+        <v>33.448387096774198</v>
+      </c>
+      <c r="C14">
+        <v>19.241935483870968</v>
+      </c>
+      <c r="D14">
+        <v>62.4</v>
+      </c>
+      <c r="E14">
+        <v>43.833109766334225</v>
+      </c>
+      <c r="F14">
+        <v>6.096774193548387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>33270</v>
+      </c>
+      <c r="B15">
+        <v>35.575000000000003</v>
+      </c>
+      <c r="C15">
+        <v>19.364285714285717</v>
+      </c>
+      <c r="D15">
+        <v>21.4</v>
+      </c>
+      <c r="E15">
+        <v>39.38338580444389</v>
+      </c>
+      <c r="F15">
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>33298</v>
+      </c>
+      <c r="B16">
+        <v>38.641935483870967</v>
+      </c>
+      <c r="C16">
+        <v>22.85161290322581</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>40.768365913700912</v>
+      </c>
+      <c r="F16">
+        <v>7.354838709677419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>33329</v>
+      </c>
+      <c r="B17">
+        <v>38.536666666666669</v>
+      </c>
+      <c r="C17">
+        <v>24.44</v>
+      </c>
+      <c r="D17">
+        <v>116.9</v>
+      </c>
+      <c r="E17">
+        <v>45.211030007818223</v>
+      </c>
+      <c r="F17">
+        <v>6.9666666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>33359</v>
+      </c>
+      <c r="B18">
+        <v>38.809677419354841</v>
+      </c>
+      <c r="C18">
+        <v>25.46</v>
+      </c>
+      <c r="D18">
+        <v>49.099999999999994</v>
+      </c>
+      <c r="E18">
+        <v>47.342717861957595</v>
+      </c>
+      <c r="F18">
+        <v>7.032258064516129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>33390</v>
+      </c>
+      <c r="B19">
+        <v>34.146666666666661</v>
+      </c>
+      <c r="C19">
+        <v>23.729999999999997</v>
+      </c>
+      <c r="D19">
+        <v>145.5</v>
+      </c>
+      <c r="E19">
+        <v>55.331726005821892</v>
+      </c>
+      <c r="F19">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>33420</v>
+      </c>
+      <c r="B20">
+        <v>34.235483870967741</v>
+      </c>
+      <c r="C20">
+        <v>23.016129032258068</v>
+      </c>
+      <c r="D20">
+        <v>41.5</v>
+      </c>
+      <c r="E20">
+        <v>52.466743631592628</v>
+      </c>
+      <c r="F20">
+        <v>8.5806451612903221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>33451</v>
+      </c>
+      <c r="B21">
+        <v>32.9258064516129</v>
+      </c>
+      <c r="C21">
+        <v>22.300000000000008</v>
+      </c>
+      <c r="D21">
+        <v>201.29999999999998</v>
+      </c>
+      <c r="E21">
+        <v>54.061564014458654</v>
+      </c>
+      <c r="F21">
+        <v>6.032258064516129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>33482</v>
+      </c>
+      <c r="B22">
+        <v>34.320000000000007</v>
+      </c>
+      <c r="C22">
+        <v>22.599999999999998</v>
+      </c>
+      <c r="D22">
+        <v>116.19999999999999</v>
+      </c>
+      <c r="E22">
+        <v>50.878693730526855</v>
+      </c>
+      <c r="F22">
+        <v>4.7241379310344831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>33512</v>
+      </c>
+      <c r="B23">
+        <v>32.319354838709678</v>
+      </c>
+      <c r="C23">
+        <v>21.935483870967747</v>
+      </c>
+      <c r="D23">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="E23">
+        <v>55.046776508492336</v>
+      </c>
+      <c r="F23">
+        <v>4.870967741935484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>33543</v>
+      </c>
+      <c r="B24">
+        <v>30.234482758620693</v>
+      </c>
+      <c r="C24">
+        <v>20.433333333333334</v>
+      </c>
+      <c r="D24">
+        <v>202.4</v>
+      </c>
+      <c r="E24">
+        <v>56.97919335069205</v>
+      </c>
+      <c r="F24">
+        <v>6.5294117647058822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>33573</v>
+      </c>
+      <c r="B25">
+        <v>30.764516129032256</v>
+      </c>
+      <c r="C25">
+        <v>19.048387096774192</v>
+      </c>
+      <c r="D25">
+        <v>0.4</v>
+      </c>
+      <c r="E25">
+        <v>50.197228145922246</v>
+      </c>
+      <c r="F25">
+        <v>3.3846153846153846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>33604</v>
+      </c>
+      <c r="B26">
+        <v>31.235483870967748</v>
+      </c>
+      <c r="C26">
+        <v>16.929032258064513</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>42.727011112789604</v>
+      </c>
+      <c r="F26">
+        <v>3.7096774193548385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>33635</v>
+      </c>
+      <c r="B27">
+        <v>34.503448275862077</v>
+      </c>
+      <c r="C27">
+        <v>20.206896551724142</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>43.403334303950636</v>
+      </c>
+      <c r="F27">
+        <v>4.1724137931034484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>33664</v>
+      </c>
+      <c r="B28">
+        <v>37.777419354838706</v>
+      </c>
+      <c r="C28">
+        <v>19.203225806451613</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>34.233755221015024</v>
+      </c>
+      <c r="F28">
+        <v>3.6451612903225805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>33695</v>
+      </c>
+      <c r="B29">
+        <v>38.936666666666682</v>
+      </c>
+      <c r="C29">
+        <v>24.293333333333333</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>43.844499716675351</v>
+      </c>
+      <c r="F29">
+        <v>4.5333333333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>33725</v>
+      </c>
+      <c r="B30">
+        <v>38.559999999999995</v>
+      </c>
+      <c r="C30">
+        <v>24.522580645161298</v>
+      </c>
+      <c r="D30">
+        <v>59.299999999999983</v>
+      </c>
+      <c r="E30">
+        <v>45.437361807411008</v>
+      </c>
+      <c r="F30">
+        <v>4.5161290322580649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>33756</v>
+      </c>
+      <c r="B31">
+        <v>35.703448275862073</v>
+      </c>
+      <c r="C31">
+        <v>23.60689655172413</v>
+      </c>
+      <c r="D31">
+        <v>55.3</v>
+      </c>
+      <c r="E31">
+        <v>50.093835032262334</v>
+      </c>
+      <c r="F31">
+        <v>5.5517241379310347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>33786</v>
+      </c>
+      <c r="B32">
+        <v>34.522580645161291</v>
+      </c>
+      <c r="C32">
+        <v>22.883870967741945</v>
+      </c>
+      <c r="D32">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E32">
+        <v>51.064653290866694</v>
+      </c>
+      <c r="F32">
+        <v>5.741935483870968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>33817</v>
+      </c>
+      <c r="B33">
+        <v>34.00322580645161</v>
+      </c>
+      <c r="C33">
+        <v>22.303225806451614</v>
+      </c>
+      <c r="D33">
+        <v>99.8</v>
+      </c>
+      <c r="E33">
+        <v>50.913315547885219</v>
+      </c>
+      <c r="F33">
+        <v>5.354838709677419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33848</v>
+      </c>
+      <c r="B34">
+        <v>33.423333333333332</v>
+      </c>
+      <c r="C34">
+        <v>21.77666666666666</v>
+      </c>
+      <c r="D34">
+        <v>186.70000000000002</v>
+      </c>
+      <c r="E34">
+        <v>50.793482381403514</v>
+      </c>
+      <c r="F34">
+        <v>3.8666666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>33878</v>
+      </c>
+      <c r="B35">
+        <v>32.383870967741935</v>
+      </c>
+      <c r="C35">
+        <v>21.832258064516136</v>
+      </c>
+      <c r="D35">
+        <v>67.600000000000009</v>
+      </c>
+      <c r="E35">
+        <v>54.116985271804559</v>
+      </c>
+      <c r="F35">
+        <v>2.6129032258064515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>33909</v>
+      </c>
+      <c r="B36">
+        <v>31.050000000000008</v>
+      </c>
+      <c r="C36">
+        <v>20.960000000000004</v>
+      </c>
+      <c r="D36">
+        <v>120.5</v>
+      </c>
+      <c r="E36">
+        <v>55.677598717742825</v>
+      </c>
+      <c r="F36">
+        <v>3.2333333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>33939</v>
+      </c>
+      <c r="B37">
+        <v>30.825806451612902</v>
+      </c>
+      <c r="C37">
+        <v>18.277419354838706</v>
+      </c>
+      <c r="D37">
+        <v>6.3</v>
+      </c>
+      <c r="E37">
+        <v>47.611077900980774</v>
+      </c>
+      <c r="F37">
+        <v>3.4193548387096775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>33970</v>
+      </c>
+      <c r="B38">
+        <v>32.663333333333341</v>
+      </c>
+      <c r="C38">
+        <v>16.846666666666664</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>39.06338528816579</v>
+      </c>
+      <c r="F38">
+        <v>3.3666666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>34001</v>
+      </c>
+      <c r="B39">
+        <v>34.707142857142856</v>
+      </c>
+      <c r="C39">
+        <v>19.189285714285717</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>40.394656221944494</v>
+      </c>
+      <c r="F39">
+        <v>2.7272727272727271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>34029</v>
+      </c>
+      <c r="B40">
+        <v>37.164516129032258</v>
+      </c>
+      <c r="C40">
+        <v>22.248387096774191</v>
+      </c>
+      <c r="D40">
+        <v>4.5</v>
+      </c>
+      <c r="E40">
+        <v>42.616549767323711</v>
+      </c>
+      <c r="F40">
+        <v>4.032258064516129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>34060</v>
+      </c>
+      <c r="B41">
+        <v>38.970000000000006</v>
+      </c>
+      <c r="C41">
+        <v>24.16333333333333</v>
+      </c>
+      <c r="D41">
+        <v>40.699999999999996</v>
+      </c>
+      <c r="E41">
+        <v>43.362946721691152</v>
+      </c>
+      <c r="F41">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>34090</v>
+      </c>
+      <c r="B42">
+        <v>38.267741935483883</v>
+      </c>
+      <c r="C42">
+        <v>24.487096774193539</v>
+      </c>
+      <c r="D42">
+        <v>112.1</v>
+      </c>
+      <c r="E42">
+        <v>46.057135593097357</v>
+      </c>
+      <c r="F42">
+        <v>5.32258064516129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>34121</v>
+      </c>
+      <c r="B43">
+        <v>35.162068965517236</v>
+      </c>
+      <c r="C43">
+        <v>22.893103448275863</v>
+      </c>
+      <c r="D43">
+        <v>74.199999999999989</v>
+      </c>
+      <c r="E43">
+        <v>49.533339898184458</v>
+      </c>
+      <c r="F43">
+        <v>4.384615384615385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>34151</v>
+      </c>
+      <c r="B44">
+        <v>34.022580645161284</v>
+      </c>
+      <c r="C44">
+        <v>22.070967741935483</v>
+      </c>
+      <c r="D44">
+        <v>39.599999999999994</v>
+      </c>
+      <c r="E44">
+        <v>50.108456151804283</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>34182</v>
+      </c>
+      <c r="B45">
+        <v>34.216129032258067</v>
+      </c>
+      <c r="C45">
+        <v>22.183870967741932</v>
+      </c>
+      <c r="D45">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>36.763333333333335</v>
-      </c>
-      <c r="C7">
-        <v>24.57096774193549</v>
-      </c>
-      <c r="D7">
-        <v>75.199999999999989</v>
-      </c>
-      <c r="E7">
-        <v>50.272517015082386</v>
-      </c>
-      <c r="F7">
-        <v>5.419354838709677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>36.159999999999997</v>
-      </c>
-      <c r="C8">
-        <v>23.866666666666671</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>49.52438015808734</v>
-      </c>
-      <c r="F8">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>34.658064516129045</v>
-      </c>
-      <c r="C9">
-        <v>22.816129032258072</v>
-      </c>
-      <c r="D9">
-        <v>138.00000000000003</v>
-      </c>
-      <c r="E9">
-        <v>50.483493284418913</v>
-      </c>
-      <c r="F9">
-        <v>6.354838709677419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>33.770967741935493</v>
-      </c>
-      <c r="C10">
-        <v>22.496774193548386</v>
-      </c>
-      <c r="D10">
-        <v>151.60000000000002</v>
-      </c>
-      <c r="E10">
-        <v>52.248605468889338</v>
-      </c>
-      <c r="F10">
-        <v>8.2903225806451619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>33.970000000000006</v>
-      </c>
-      <c r="C11">
-        <v>22.716666666666665</v>
-      </c>
-      <c r="D11">
-        <v>173.4</v>
-      </c>
-      <c r="E11">
-        <v>52.20219438259322</v>
-      </c>
-      <c r="F11">
-        <v>5.3666666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>33.035483870967745</v>
-      </c>
-      <c r="C12">
-        <v>22.280645161290323</v>
-      </c>
-      <c r="D12">
-        <v>62.599999999999994</v>
-      </c>
-      <c r="E12">
-        <v>53.991902564892868</v>
-      </c>
-      <c r="F12">
-        <v>6.354838709677419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>31.955172413793097</v>
-      </c>
-      <c r="C13">
-        <v>20.546666666666667</v>
-      </c>
-      <c r="D13">
-        <v>64.8</v>
-      </c>
-      <c r="E13">
-        <v>51.59956421530552</v>
-      </c>
-      <c r="F13">
-        <v>9.0333333333333332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>32.064516129032256</v>
-      </c>
-      <c r="C14">
-        <v>19.467741935483872</v>
-      </c>
-      <c r="D14">
-        <v>3.0999999999999996</v>
-      </c>
-      <c r="E14">
-        <v>47.745946398013018</v>
-      </c>
-      <c r="F14">
-        <v>9.5161290322580641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>33.448387096774198</v>
-      </c>
-      <c r="C16">
-        <v>19.241935483870968</v>
-      </c>
-      <c r="D16">
-        <v>62.4</v>
-      </c>
-      <c r="E16">
-        <v>43.833109766334225</v>
-      </c>
-      <c r="F16">
-        <v>6.096774193548387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>35.575000000000003</v>
-      </c>
-      <c r="C17">
-        <v>19.364285714285717</v>
-      </c>
-      <c r="D17">
-        <v>21.4</v>
-      </c>
-      <c r="E17">
-        <v>39.38338580444389</v>
-      </c>
-      <c r="F17">
-        <v>5.8571428571428568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>38.641935483870967</v>
-      </c>
-      <c r="C18">
-        <v>22.85161290322581</v>
-      </c>
-      <c r="D18">
+      <c r="E45">
+        <v>49.928064716632747</v>
+      </c>
+      <c r="F45">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>40.768365913700912</v>
-      </c>
-      <c r="F18">
-        <v>7.354838709677419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>38.536666666666669</v>
-      </c>
-      <c r="C19">
-        <v>24.44</v>
-      </c>
-      <c r="D19">
-        <v>116.9</v>
-      </c>
-      <c r="E19">
-        <v>45.211030007818223</v>
-      </c>
-      <c r="F19">
-        <v>6.9666666666666668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>38.809677419354841</v>
-      </c>
-      <c r="C20">
-        <v>25.46</v>
-      </c>
-      <c r="D20">
-        <v>49.099999999999994</v>
-      </c>
-      <c r="E20">
-        <v>47.342717861957595</v>
-      </c>
-      <c r="F20">
-        <v>7.032258064516129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>34.146666666666661</v>
-      </c>
-      <c r="C21">
-        <v>23.729999999999997</v>
-      </c>
-      <c r="D21">
-        <v>145.5</v>
-      </c>
-      <c r="E21">
-        <v>55.331726005821892</v>
-      </c>
-      <c r="F21">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>34.235483870967741</v>
-      </c>
-      <c r="C22">
-        <v>23.016129032258068</v>
-      </c>
-      <c r="D22">
-        <v>41.5</v>
-      </c>
-      <c r="E22">
-        <v>52.466743631592628</v>
-      </c>
-      <c r="F22">
-        <v>8.5806451612903221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>32.9258064516129</v>
-      </c>
-      <c r="C23">
-        <v>22.300000000000008</v>
-      </c>
-      <c r="D23">
-        <v>201.29999999999998</v>
-      </c>
-      <c r="E23">
-        <v>54.061564014458654</v>
-      </c>
-      <c r="F23">
-        <v>6.032258064516129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>34.320000000000007</v>
-      </c>
-      <c r="C24">
-        <v>22.599999999999998</v>
-      </c>
-      <c r="D24">
-        <v>116.19999999999999</v>
-      </c>
-      <c r="E24">
-        <v>50.878693730526855</v>
-      </c>
-      <c r="F24">
-        <v>4.7241379310344831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>32.319354838709678</v>
-      </c>
-      <c r="C25">
-        <v>21.935483870967747</v>
-      </c>
-      <c r="D25">
-        <v>305.10000000000002</v>
-      </c>
-      <c r="E25">
-        <v>55.046776508492336</v>
-      </c>
-      <c r="F25">
-        <v>4.870967741935484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>30.234482758620693</v>
-      </c>
-      <c r="C26">
-        <v>20.433333333333334</v>
-      </c>
-      <c r="D26">
-        <v>202.4</v>
-      </c>
-      <c r="E26">
-        <v>56.97919335069205</v>
-      </c>
-      <c r="F26">
-        <v>6.5294117647058822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>30.764516129032256</v>
-      </c>
-      <c r="C27">
-        <v>19.048387096774192</v>
-      </c>
-      <c r="D27">
-        <v>0.4</v>
-      </c>
-      <c r="E27">
-        <v>50.197228145922246</v>
-      </c>
-      <c r="F27">
-        <v>3.3846153846153846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>31.235483870967748</v>
-      </c>
-      <c r="C29">
-        <v>16.929032258064513</v>
-      </c>
-      <c r="D29">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>34213</v>
+      </c>
+      <c r="B46">
+        <v>32.986666666666665</v>
+      </c>
+      <c r="C46">
+        <v>21.973333333333326</v>
+      </c>
+      <c r="D46">
+        <v>58.5</v>
+      </c>
+      <c r="E46">
+        <v>52.812147550372096</v>
+      </c>
+      <c r="F46">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>42.727011112789604</v>
-      </c>
-      <c r="F29">
-        <v>3.7096774193548385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>34.503448275862077</v>
-      </c>
-      <c r="C30">
-        <v>20.206896551724142</v>
-      </c>
-      <c r="D30">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>34243</v>
+      </c>
+      <c r="B47">
+        <v>31.729032258064517</v>
+      </c>
+      <c r="C47">
+        <v>21.42580645161291</v>
+      </c>
+      <c r="D47">
+        <v>183.9</v>
+      </c>
+      <c r="E47">
+        <v>54.720347016270814</v>
+      </c>
+      <c r="F47">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>43.403334303950636</v>
-      </c>
-      <c r="F30">
-        <v>4.1724137931034484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>37.777419354838706</v>
-      </c>
-      <c r="C31">
-        <v>19.203225806451613</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>34.233755221015024</v>
-      </c>
-      <c r="F31">
-        <v>3.6451612903225805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>38.936666666666682</v>
-      </c>
-      <c r="C32">
-        <v>24.293333333333333</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>43.844499716675351</v>
-      </c>
-      <c r="F32">
-        <v>4.5333333333333332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>38.559999999999995</v>
-      </c>
-      <c r="C33">
-        <v>24.522580645161298</v>
-      </c>
-      <c r="D33">
-        <v>59.299999999999983</v>
-      </c>
-      <c r="E33">
-        <v>45.437361807411008</v>
-      </c>
-      <c r="F33">
-        <v>4.5161290322580649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>35.703448275862073</v>
-      </c>
-      <c r="C34">
-        <v>23.60689655172413</v>
-      </c>
-      <c r="D34">
-        <v>55.3</v>
-      </c>
-      <c r="E34">
-        <v>50.093835032262334</v>
-      </c>
-      <c r="F34">
-        <v>5.5517241379310347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>34.522580645161291</v>
-      </c>
-      <c r="C35">
-        <v>22.883870967741945</v>
-      </c>
-      <c r="D35">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E35">
-        <v>51.064653290866694</v>
-      </c>
-      <c r="F35">
-        <v>5.741935483870968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>34.00322580645161</v>
-      </c>
-      <c r="C36">
-        <v>22.303225806451614</v>
-      </c>
-      <c r="D36">
-        <v>99.8</v>
-      </c>
-      <c r="E36">
-        <v>50.913315547885219</v>
-      </c>
-      <c r="F36">
-        <v>5.354838709677419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>33.423333333333332</v>
-      </c>
-      <c r="C37">
-        <v>21.77666666666666</v>
-      </c>
-      <c r="D37">
-        <v>186.70000000000002</v>
-      </c>
-      <c r="E37">
-        <v>50.793482381403514</v>
-      </c>
-      <c r="F37">
-        <v>3.8666666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>32.383870967741935</v>
-      </c>
-      <c r="C38">
-        <v>21.832258064516136</v>
-      </c>
-      <c r="D38">
-        <v>67.600000000000009</v>
-      </c>
-      <c r="E38">
-        <v>54.116985271804559</v>
-      </c>
-      <c r="F38">
-        <v>2.6129032258064515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>31.050000000000008</v>
-      </c>
-      <c r="C39">
-        <v>20.960000000000004</v>
-      </c>
-      <c r="D39">
-        <v>120.5</v>
-      </c>
-      <c r="E39">
-        <v>55.677598717742825</v>
-      </c>
-      <c r="F39">
-        <v>3.2333333333333334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>30.825806451612902</v>
-      </c>
-      <c r="C40">
-        <v>18.277419354838706</v>
-      </c>
-      <c r="D40">
-        <v>6.3</v>
-      </c>
-      <c r="E40">
-        <v>47.611077900980774</v>
-      </c>
-      <c r="F40">
-        <v>3.4193548387096775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42">
-        <v>32.663333333333341</v>
-      </c>
-      <c r="C42">
-        <v>16.846666666666664</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>39.06338528816579</v>
-      </c>
-      <c r="F42">
-        <v>3.3666666666666667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
-        <v>34.707142857142856</v>
-      </c>
-      <c r="C43">
-        <v>19.189285714285717</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>40.394656221944494</v>
-      </c>
-      <c r="F43">
-        <v>2.7272727272727271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>37.164516129032258</v>
-      </c>
-      <c r="C44">
-        <v>22.248387096774191</v>
-      </c>
-      <c r="D44">
-        <v>4.5</v>
-      </c>
-      <c r="E44">
-        <v>42.616549767323711</v>
-      </c>
-      <c r="F44">
-        <v>4.032258064516129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45">
-        <v>38.970000000000006</v>
-      </c>
-      <c r="C45">
-        <v>24.16333333333333</v>
-      </c>
-      <c r="D45">
-        <v>40.699999999999996</v>
-      </c>
-      <c r="E45">
-        <v>43.362946721691152</v>
-      </c>
-      <c r="F45">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46">
-        <v>38.267741935483883</v>
-      </c>
-      <c r="C46">
-        <v>24.487096774193539</v>
-      </c>
-      <c r="D46">
-        <v>112.1</v>
-      </c>
-      <c r="E46">
-        <v>46.057135593097357</v>
-      </c>
-      <c r="F46">
-        <v>5.32258064516129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47">
-        <v>35.162068965517236</v>
-      </c>
-      <c r="C47">
-        <v>22.893103448275863</v>
-      </c>
-      <c r="D47">
-        <v>74.199999999999989</v>
-      </c>
-      <c r="E47">
-        <v>49.533339898184458</v>
-      </c>
-      <c r="F47">
-        <v>4.384615384615385</v>
-      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>13</v>
+      <c r="A48" s="6">
+        <v>34274</v>
       </c>
       <c r="B48">
-        <v>34.022580645161284</v>
+        <v>30.380000000000003</v>
       </c>
       <c r="C48">
-        <v>22.070967741935483</v>
+        <v>20.220000000000002</v>
       </c>
       <c r="D48">
-        <v>39.599999999999994</v>
+        <v>88.2</v>
       </c>
       <c r="E48">
-        <v>50.108456151804283</v>
+        <v>55.266936483948719</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>14</v>
+      <c r="A49" s="6">
+        <v>34304</v>
       </c>
       <c r="B49">
-        <v>34.216129032258067</v>
+        <v>29.41333333333333</v>
       </c>
       <c r="C49">
-        <v>22.183870967741932</v>
+        <v>18.77</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>14.1</v>
       </c>
       <c r="E49">
-        <v>49.928064716632747</v>
+        <v>53.538055004690847</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>15</v>
+      <c r="A50" s="6">
+        <v>34335</v>
       </c>
       <c r="B50">
-        <v>32.986666666666665</v>
+        <v>32.161290322580648</v>
       </c>
       <c r="C50">
-        <v>21.973333333333326</v>
+        <v>18.083870967741937</v>
       </c>
       <c r="D50">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>52.812147550372096</v>
+        <v>43.465705091049671</v>
       </c>
       <c r="F50">
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>34366</v>
+      </c>
+      <c r="B51">
+        <v>34.349999999999994</v>
+      </c>
+      <c r="C51">
+        <v>20.157142857142862</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+      <c r="E51">
+        <v>43.876350134907433</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>34394</v>
+      </c>
+      <c r="B52">
+        <v>37.380645161290332</v>
+      </c>
+      <c r="C52">
+        <v>21.00322580645161</v>
+      </c>
+      <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51">
-        <v>31.729032258064517</v>
-      </c>
-      <c r="C51">
-        <v>21.42580645161291</v>
-      </c>
-      <c r="D51">
-        <v>183.9</v>
-      </c>
-      <c r="E51">
-        <v>54.720347016270814</v>
-      </c>
-      <c r="F51">
+      <c r="E52">
+        <v>39.171807924695592</v>
+      </c>
+      <c r="F52">
+        <v>4.709677419354839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>34425</v>
+      </c>
+      <c r="B53">
+        <v>37.396666666666675</v>
+      </c>
+      <c r="C53">
+        <v>23.87</v>
+      </c>
+      <c r="D53">
+        <v>77.800000000000011</v>
+      </c>
+      <c r="E53">
+        <v>46.411550053597345</v>
+      </c>
+      <c r="F53">
+        <v>4.5666666666666664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>34455</v>
+      </c>
+      <c r="B54">
+        <v>38.21290322580645</v>
+      </c>
+      <c r="C54">
+        <v>23.619354838709679</v>
+      </c>
+      <c r="D54">
+        <v>131.6</v>
+      </c>
+      <c r="E54">
+        <v>44.00440346061167</v>
+      </c>
+      <c r="F54">
+        <v>4.774193548387097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>34486</v>
+      </c>
+      <c r="B55">
+        <v>35.596666666666664</v>
+      </c>
+      <c r="C55">
+        <v>22.94</v>
+      </c>
+      <c r="D55">
+        <v>30.9</v>
+      </c>
+      <c r="E55">
+        <v>48.387209621327543</v>
+      </c>
+      <c r="F55">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>34516</v>
+      </c>
+      <c r="B56">
+        <v>33.454838709677418</v>
+      </c>
+      <c r="C56">
+        <v>21.825806451612909</v>
+      </c>
+      <c r="D56">
+        <v>125.49999999999999</v>
+      </c>
+      <c r="E56">
+        <v>50.982421268068997</v>
+      </c>
+      <c r="F56">
+        <v>4.709677419354839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>34547</v>
+      </c>
+      <c r="B57">
+        <v>34.196774193548386</v>
+      </c>
+      <c r="C57">
+        <v>22.180645161290325</v>
+      </c>
+      <c r="D57">
+        <v>95.499999999999986</v>
+      </c>
+      <c r="E57">
+        <v>50.006415605966467</v>
+      </c>
+      <c r="F57">
+        <v>4.774193548387097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>34578</v>
+      </c>
+      <c r="B58">
+        <v>35.56333333333334</v>
+      </c>
+      <c r="C58">
+        <v>22.88666666666667</v>
+      </c>
+      <c r="D58">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="E58">
+        <v>48.236541200509919</v>
+      </c>
+      <c r="F58">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>34608</v>
+      </c>
+      <c r="B59">
+        <v>32.0741935483871</v>
+      </c>
+      <c r="C59">
+        <v>22.051612903225802</v>
+      </c>
+      <c r="D59">
+        <v>277.20000000000005</v>
+      </c>
+      <c r="E59">
+        <v>55.743557536097192</v>
+      </c>
+      <c r="F59">
+        <v>2.3548387096774195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>34639</v>
+      </c>
+      <c r="B60">
+        <v>30.343333333333337</v>
+      </c>
+      <c r="C60">
+        <v>20.176666666666673</v>
+      </c>
+      <c r="D60">
+        <v>93.3</v>
+      </c>
+      <c r="E60">
+        <v>55.16304726730904</v>
+      </c>
+      <c r="F60">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>34669</v>
+      </c>
+      <c r="B61">
+        <v>31.006451612903227</v>
+      </c>
+      <c r="C61">
+        <v>17.987096774193549</v>
+      </c>
+      <c r="D61">
+        <v>3.2</v>
+      </c>
+      <c r="E61">
+        <v>46.342210628808147</v>
+      </c>
+      <c r="F61">
+        <v>3.5483870967741935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>34700</v>
+      </c>
+      <c r="B62">
+        <v>31.738709677419358</v>
+      </c>
+      <c r="C62">
+        <v>19.151612903225807</v>
+      </c>
+      <c r="D62">
+        <v>0.3</v>
+      </c>
+      <c r="E62">
+        <v>47.772488420738881</v>
+      </c>
+      <c r="F62">
+        <v>4.258064516129032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>34731</v>
+      </c>
+      <c r="B63">
+        <v>34.692857142857143</v>
+      </c>
+      <c r="C63">
+        <v>19.703571428571429</v>
+      </c>
+      <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52">
-        <v>30.380000000000003</v>
-      </c>
-      <c r="C52">
-        <v>20.220000000000002</v>
-      </c>
-      <c r="D52">
-        <v>88.2</v>
-      </c>
-      <c r="E52">
-        <v>55.266936483948719</v>
-      </c>
-      <c r="F52">
+      <c r="E63">
+        <v>41.671969161399034</v>
+      </c>
+      <c r="F63">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>34759</v>
+      </c>
+      <c r="B64">
+        <v>37.158064516129031</v>
+      </c>
+      <c r="C64">
+        <v>20.667741935483864</v>
+      </c>
+      <c r="D64">
+        <v>12.9</v>
+      </c>
+      <c r="E64">
+        <v>38.816078168202928</v>
+      </c>
+      <c r="F64">
+        <v>4.419354838709677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>34790</v>
+      </c>
+      <c r="B65">
+        <v>37.95333333333334</v>
+      </c>
+      <c r="C65">
+        <v>23.79</v>
+      </c>
+      <c r="D65">
+        <v>43.8</v>
+      </c>
+      <c r="E65">
+        <v>44.819875896982133</v>
+      </c>
+      <c r="F65">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>34820</v>
+      </c>
+      <c r="B66">
+        <v>35.987096774193546</v>
+      </c>
+      <c r="C66">
+        <v>23.409677419354843</v>
+      </c>
+      <c r="D66">
+        <v>83.40000000000002</v>
+      </c>
+      <c r="E66">
+        <v>49.144891363172192</v>
+      </c>
+      <c r="F66">
+        <v>4.129032258064516</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>34851</v>
+      </c>
+      <c r="B67">
+        <v>35.753333333333337</v>
+      </c>
+      <c r="C67">
+        <v>23.156666666666673</v>
+      </c>
+      <c r="D67">
+        <v>114.49999999999999</v>
+      </c>
+      <c r="E67">
+        <v>48.70247618332376</v>
+      </c>
+      <c r="F67">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>34881</v>
+      </c>
+      <c r="B68">
+        <v>33.238709677419351</v>
+      </c>
+      <c r="C68">
+        <v>22.029032258064515</v>
+      </c>
+      <c r="D68">
+        <v>95.399999999999991</v>
+      </c>
+      <c r="E68">
+        <v>52.244638774006638</v>
+      </c>
+      <c r="F68">
+        <v>4.354838709677419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>34912</v>
+      </c>
+      <c r="B69">
+        <v>33.109677419354838</v>
+      </c>
+      <c r="C69">
+        <v>21.990322580645159</v>
+      </c>
+      <c r="D69">
+        <v>216.7</v>
+      </c>
+      <c r="E69">
+        <v>52.400222557901728</v>
+      </c>
+      <c r="F69">
+        <v>3.774193548387097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>34943</v>
+      </c>
+      <c r="B70">
+        <v>33.42</v>
+      </c>
+      <c r="C70">
+        <v>21.646666666666665</v>
+      </c>
+      <c r="D70">
+        <v>134.9</v>
+      </c>
+      <c r="E70">
+        <v>50.445840543036446</v>
+      </c>
+      <c r="F70">
+        <v>3.6333333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>34973</v>
+      </c>
+      <c r="B71">
+        <v>32.664516129032265</v>
+      </c>
+      <c r="C71">
+        <v>21.548387096774192</v>
+      </c>
+      <c r="D71">
+        <v>70.2</v>
+      </c>
+      <c r="E71">
+        <v>52.367929789401636</v>
+      </c>
+      <c r="F71">
+        <v>2.064516129032258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>35004</v>
+      </c>
+      <c r="B72">
+        <v>31.960000000000004</v>
+      </c>
+      <c r="C72">
+        <v>20.65</v>
+      </c>
+      <c r="D72">
+        <v>66.5</v>
+      </c>
+      <c r="E72">
+        <v>51.730944531974004</v>
+      </c>
+      <c r="F72">
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>35034</v>
+      </c>
+      <c r="B73">
+        <v>32.538709677419355</v>
+      </c>
+      <c r="C73">
+        <v>18.454838709677421</v>
+      </c>
+      <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <v>29.41333333333333</v>
-      </c>
-      <c r="C53">
-        <v>18.77</v>
-      </c>
-      <c r="D53">
-        <v>14.1</v>
-      </c>
-      <c r="E53">
-        <v>53.538055004690847</v>
-      </c>
-      <c r="F53">
+      <c r="E73">
+        <v>43.49351764082482</v>
+      </c>
+      <c r="F73">
+        <v>3.6129032258064515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>35065</v>
+      </c>
+      <c r="B74">
+        <v>33.409677419354843</v>
+      </c>
+      <c r="C74">
+        <v>19.238709677419358</v>
+      </c>
+      <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55">
-        <v>32.161290322580648</v>
-      </c>
-      <c r="C55">
-        <v>18.083870967741937</v>
-      </c>
-      <c r="D55">
+      <c r="E74">
+        <v>43.710572837866721</v>
+      </c>
+      <c r="F74">
+        <v>4.258064516129032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>35096</v>
+      </c>
+      <c r="B75">
+        <v>35.0448275862069</v>
+      </c>
+      <c r="C75">
+        <v>20.413793103448281</v>
+      </c>
+      <c r="D75">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>43.465705091049671</v>
-      </c>
-      <c r="F55">
-        <v>3.7142857142857144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56">
-        <v>34.349999999999994</v>
-      </c>
-      <c r="C56">
-        <v>20.157142857142862</v>
-      </c>
-      <c r="D56">
-        <v>0.2</v>
-      </c>
-      <c r="E56">
-        <v>43.876350134907433</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57">
-        <v>37.380645161290332</v>
-      </c>
-      <c r="C57">
-        <v>21.00322580645161</v>
-      </c>
-      <c r="D57">
+      <c r="E75">
+        <v>42.678674598104799</v>
+      </c>
+      <c r="F75">
+        <v>4.7931034482758621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>35125</v>
+      </c>
+      <c r="B76">
+        <v>38.306451612903224</v>
+      </c>
+      <c r="C76">
+        <v>21.887096774193541</v>
+      </c>
+      <c r="D76">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>39.171807924695592</v>
-      </c>
-      <c r="F57">
-        <v>4.709677419354839</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58">
-        <v>37.396666666666675</v>
-      </c>
-      <c r="C58">
-        <v>23.87</v>
-      </c>
-      <c r="D58">
-        <v>77.800000000000011</v>
-      </c>
-      <c r="E58">
-        <v>46.411550053597345</v>
-      </c>
-      <c r="F58">
-        <v>4.5666666666666664</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59">
-        <v>38.21290322580645</v>
-      </c>
-      <c r="C59">
-        <v>23.619354838709679</v>
-      </c>
-      <c r="D59">
-        <v>131.6</v>
-      </c>
-      <c r="E59">
-        <v>44.00440346061167</v>
-      </c>
-      <c r="F59">
-        <v>4.774193548387097</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60">
-        <v>35.596666666666664</v>
-      </c>
-      <c r="C60">
-        <v>22.94</v>
-      </c>
-      <c r="D60">
-        <v>30.9</v>
-      </c>
-      <c r="E60">
-        <v>48.387209621327543</v>
-      </c>
-      <c r="F60">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61">
-        <v>33.454838709677418</v>
-      </c>
-      <c r="C61">
-        <v>21.825806451612909</v>
-      </c>
-      <c r="D61">
-        <v>125.49999999999999</v>
-      </c>
-      <c r="E61">
-        <v>50.982421268068997</v>
-      </c>
-      <c r="F61">
-        <v>4.709677419354839</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62">
-        <v>34.196774193548386</v>
-      </c>
-      <c r="C62">
-        <v>22.180645161290325</v>
-      </c>
-      <c r="D62">
-        <v>95.499999999999986</v>
-      </c>
-      <c r="E62">
-        <v>50.006415605966467</v>
-      </c>
-      <c r="F62">
-        <v>4.774193548387097</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63">
-        <v>35.56333333333334</v>
-      </c>
-      <c r="C63">
-        <v>22.88666666666667</v>
-      </c>
-      <c r="D63">
-        <v>131.19999999999999</v>
-      </c>
-      <c r="E63">
-        <v>48.236541200509919</v>
-      </c>
-      <c r="F63">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64">
-        <v>32.0741935483871</v>
-      </c>
-      <c r="C64">
-        <v>22.051612903225802</v>
-      </c>
-      <c r="D64">
-        <v>277.20000000000005</v>
-      </c>
-      <c r="E64">
-        <v>55.743557536097192</v>
-      </c>
-      <c r="F64">
-        <v>2.3548387096774195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65">
-        <v>30.343333333333337</v>
-      </c>
-      <c r="C65">
-        <v>20.176666666666673</v>
-      </c>
-      <c r="D65">
-        <v>93.3</v>
-      </c>
-      <c r="E65">
-        <v>55.16304726730904</v>
-      </c>
-      <c r="F65">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66">
-        <v>31.006451612903227</v>
-      </c>
-      <c r="C66">
-        <v>17.987096774193549</v>
-      </c>
-      <c r="D66">
-        <v>3.2</v>
-      </c>
-      <c r="E66">
-        <v>46.342210628808147</v>
-      </c>
-      <c r="F66">
-        <v>3.5483870967741935</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68">
-        <v>31.738709677419358</v>
-      </c>
-      <c r="C68">
-        <v>19.151612903225807</v>
-      </c>
-      <c r="D68">
-        <v>0.3</v>
-      </c>
-      <c r="E68">
-        <v>47.772488420738881</v>
-      </c>
-      <c r="F68">
-        <v>4.258064516129032</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69">
-        <v>34.692857142857143</v>
-      </c>
-      <c r="C69">
-        <v>19.703571428571429</v>
-      </c>
-      <c r="D69">
+      <c r="E76">
+        <v>39.310625785965421</v>
+      </c>
+      <c r="F76">
+        <v>3.774193548387097</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>35156</v>
+      </c>
+      <c r="B77">
+        <v>36.659999999999989</v>
+      </c>
+      <c r="C77">
+        <v>24.430000000000007</v>
+      </c>
+      <c r="D77">
+        <v>11.4</v>
+      </c>
+      <c r="E77">
+        <v>50.021978932545835</v>
+      </c>
+      <c r="F77">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>35186</v>
+      </c>
+      <c r="B78">
+        <v>38.258064516129032</v>
+      </c>
+      <c r="C78">
+        <v>25.445161290322577</v>
+      </c>
+      <c r="D78">
         <v>0</v>
       </c>
-      <c r="E69">
-        <v>41.671969161399034</v>
-      </c>
-      <c r="F69">
-        <v>5.1428571428571432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70">
-        <v>37.158064516129031</v>
-      </c>
-      <c r="C70">
-        <v>20.667741935483864</v>
-      </c>
-      <c r="D70">
-        <v>12.9</v>
-      </c>
-      <c r="E70">
-        <v>38.816078168202928</v>
-      </c>
-      <c r="F70">
-        <v>4.419354838709677</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71">
-        <v>37.95333333333334</v>
-      </c>
-      <c r="C71">
-        <v>23.79</v>
-      </c>
-      <c r="D71">
-        <v>43.8</v>
-      </c>
-      <c r="E71">
-        <v>44.819875896982133</v>
-      </c>
-      <c r="F71">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72">
-        <v>35.987096774193546</v>
-      </c>
-      <c r="C72">
-        <v>23.409677419354843</v>
-      </c>
-      <c r="D72">
-        <v>83.40000000000002</v>
-      </c>
-      <c r="E72">
-        <v>49.144891363172192</v>
-      </c>
-      <c r="F72">
-        <v>4.129032258064516</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73">
-        <v>35.753333333333337</v>
-      </c>
-      <c r="C73">
-        <v>23.156666666666673</v>
-      </c>
-      <c r="D73">
-        <v>114.49999999999999</v>
-      </c>
-      <c r="E73">
-        <v>48.70247618332376</v>
-      </c>
-      <c r="F73">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74">
-        <v>33.238709677419351</v>
-      </c>
-      <c r="C74">
-        <v>22.029032258064515</v>
-      </c>
-      <c r="D74">
-        <v>95.399999999999991</v>
-      </c>
-      <c r="E74">
-        <v>52.244638774006638</v>
-      </c>
-      <c r="F74">
-        <v>4.354838709677419</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75">
-        <v>33.109677419354838</v>
-      </c>
-      <c r="C75">
-        <v>21.990322580645159</v>
-      </c>
-      <c r="D75">
-        <v>216.7</v>
-      </c>
-      <c r="E75">
-        <v>52.400222557901728</v>
-      </c>
-      <c r="F75">
-        <v>3.774193548387097</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76">
-        <v>33.42</v>
-      </c>
-      <c r="C76">
-        <v>21.646666666666665</v>
-      </c>
-      <c r="D76">
-        <v>134.9</v>
-      </c>
-      <c r="E76">
-        <v>50.445840543036446</v>
-      </c>
-      <c r="F76">
-        <v>3.6333333333333333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77">
-        <v>32.664516129032265</v>
-      </c>
-      <c r="C77">
-        <v>21.548387096774192</v>
-      </c>
-      <c r="D77">
-        <v>70.2</v>
-      </c>
-      <c r="E77">
-        <v>52.367929789401636</v>
-      </c>
-      <c r="F77">
-        <v>2.064516129032258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78">
-        <v>31.960000000000004</v>
-      </c>
-      <c r="C78">
-        <v>20.65</v>
-      </c>
-      <c r="D78">
-        <v>66.5</v>
-      </c>
       <c r="E78">
-        <v>51.730944531974004</v>
+        <v>48.619078672073016</v>
       </c>
       <c r="F78">
-        <v>2.0666666666666669</v>
+        <v>3.806451612903226</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>18</v>
+      <c r="A79" s="6">
+        <v>35217</v>
       </c>
       <c r="B79">
-        <v>32.538709677419355</v>
+        <v>34.674999999999997</v>
       </c>
       <c r="C79">
-        <v>18.454838709677421</v>
+        <v>24.096551724137928</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>43.49351764082482</v>
+        <v>55.30121725538082</v>
       </c>
       <c r="F79">
-        <v>3.6129032258064515</v>
+        <v>3.6206896551724137</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="A80" s="6">
+        <v>35247</v>
+      </c>
+      <c r="B80">
+        <v>33.738709677419344</v>
+      </c>
+      <c r="C80">
+        <v>23.445161290322577</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>55.326784451071205</v>
+      </c>
+      <c r="F80">
+        <v>4.225806451612903</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>7</v>
+      <c r="A81" s="6">
+        <v>35278</v>
       </c>
       <c r="B81">
-        <v>33.409677419354843</v>
+        <v>33.274193548387096</v>
       </c>
       <c r="C81">
-        <v>19.238709677419358</v>
+        <v>22.961290322580645</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>43.710572837866721</v>
+        <v>55.154672525965545</v>
       </c>
       <c r="F81">
-        <v>4.258064516129032</v>
+        <v>3.2903225806451615</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>8</v>
+      <c r="A82" s="6">
+        <v>35309</v>
       </c>
       <c r="B82">
-        <v>35.0448275862069</v>
+        <v>32.04</v>
       </c>
       <c r="C82">
-        <v>20.413793103448281</v>
+        <v>22.693333333333328</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E82">
-        <v>42.678674598104799</v>
+        <v>58.038213876829467</v>
       </c>
       <c r="F82">
-        <v>4.7931034482758621</v>
+        <v>1.8666666666666667</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>9</v>
+      <c r="A83" s="6">
+        <v>35339</v>
       </c>
       <c r="B83">
-        <v>38.306451612903224</v>
+        <v>31.776666666666664</v>
       </c>
       <c r="C83">
-        <v>21.887096774193541</v>
+        <v>22.156666666666663</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>39.310625785965421</v>
+        <v>57.433567795813211</v>
       </c>
       <c r="F83">
-        <v>3.774193548387097</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>10</v>
+      <c r="A84" s="6">
+        <v>35370</v>
       </c>
       <c r="B84">
-        <v>36.659999999999989</v>
+        <v>31.673333333333336</v>
       </c>
       <c r="C84">
-        <v>24.430000000000007</v>
+        <v>21.04666666666667</v>
       </c>
       <c r="D84">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>50.021978932545835</v>
+        <v>54.288391420025661</v>
       </c>
       <c r="F84">
-        <v>3.1</v>
+        <v>1.4666666666666666</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>11</v>
+      <c r="A85" s="6">
+        <v>35400</v>
       </c>
       <c r="B85">
-        <v>38.258064516129032</v>
+        <v>29.374193548387098</v>
       </c>
       <c r="C85">
-        <v>25.445161290322577</v>
+        <v>18.619354838709679</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>48.619078672073016</v>
+        <v>54.848319573639579</v>
       </c>
       <c r="F85">
-        <v>3.806451612903226</v>
+        <v>1.6451612903225807</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>12</v>
+      <c r="A86" s="6">
+        <v>35431</v>
       </c>
       <c r="B86">
-        <v>34.674999999999997</v>
+        <v>31.925806451612889</v>
       </c>
       <c r="C86">
-        <v>24.096551724137928</v>
+        <v>19.145161290322577</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E86">
-        <v>55.30121725538082</v>
+        <v>47.182048395205179</v>
       </c>
       <c r="F86">
-        <v>3.6206896551724137</v>
+        <v>3.129032258064516</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>13</v>
+      <c r="A87" s="6">
+        <v>35462</v>
       </c>
       <c r="B87">
-        <v>33.738709677419344</v>
+        <v>34.917857142857152</v>
       </c>
       <c r="C87">
-        <v>23.445161290322577</v>
+        <v>19.325925925925926</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>55.326784451071205</v>
+        <v>40.505081219406833</v>
       </c>
       <c r="F87">
-        <v>4.225806451612903</v>
+        <v>2.9642857142857144</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>14</v>
+      <c r="A88" s="6">
+        <v>35490</v>
       </c>
       <c r="B88">
-        <v>33.274193548387096</v>
+        <v>37.138709677419349</v>
       </c>
       <c r="C88">
-        <v>22.961290322580645</v>
+        <v>21.654838709677417</v>
       </c>
       <c r="D88">
+        <v>27.3</v>
+      </c>
+      <c r="E88">
+        <v>41.168496879621564</v>
+      </c>
+      <c r="F88">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>35521</v>
+      </c>
+      <c r="B89">
+        <v>36.083333333333336</v>
+      </c>
+      <c r="C89">
+        <v>23.766666666666662</v>
+      </c>
+      <c r="D89">
+        <v>54.7</v>
+      </c>
+      <c r="E89">
+        <v>49.578090975722326</v>
+      </c>
+      <c r="F89">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>35551</v>
+      </c>
+      <c r="B90">
+        <v>37.083870967741937</v>
+      </c>
+      <c r="C90">
+        <v>24.78387096774193</v>
+      </c>
+      <c r="D90">
+        <v>67.2</v>
+      </c>
+      <c r="E90">
+        <v>49.933592070001545</v>
+      </c>
+      <c r="F90">
+        <v>2.806451612903226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>35582</v>
+      </c>
+      <c r="B91">
+        <v>36.833333333333329</v>
+      </c>
+      <c r="C91">
+        <v>24.56</v>
+      </c>
+      <c r="D91">
+        <v>50.3</v>
+      </c>
+      <c r="E91">
+        <v>49.799482542266766</v>
+      </c>
+      <c r="F91">
+        <v>3.5666666666666669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
+        <v>35612</v>
+      </c>
+      <c r="B92">
+        <v>34.212903225806457</v>
+      </c>
+      <c r="C92">
+        <v>23.403225806451609</v>
+      </c>
+      <c r="D92">
+        <v>54.400000000000006</v>
+      </c>
+      <c r="E92">
+        <v>53.782093705840147</v>
+      </c>
+      <c r="F92">
+        <v>3.903225806451613</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
+        <v>35643</v>
+      </c>
+      <c r="B93">
+        <v>33.412903225806453</v>
+      </c>
+      <c r="C93">
+        <v>23.07741935483871</v>
+      </c>
+      <c r="D93">
+        <v>175.3</v>
+      </c>
+      <c r="E93">
+        <v>55.099299570227281</v>
+      </c>
+      <c r="F93">
+        <v>3.3548387096774195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>35674</v>
+      </c>
+      <c r="B94">
+        <v>33.190000000000005</v>
+      </c>
+      <c r="C94">
+        <v>22.720000000000006</v>
+      </c>
+      <c r="D94">
+        <v>164.10000000000002</v>
+      </c>
+      <c r="E94">
+        <v>54.491153387229012</v>
+      </c>
+      <c r="F94">
+        <v>1.8666666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>35704</v>
+      </c>
+      <c r="B95">
+        <v>32.658064516129031</v>
+      </c>
+      <c r="C95">
+        <v>21.983870967741932</v>
+      </c>
+      <c r="D95">
+        <v>287.59999999999997</v>
+      </c>
+      <c r="E95">
+        <v>53.697160857324832</v>
+      </c>
+      <c r="F95">
+        <v>1.5161290322580645</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>35735</v>
+      </c>
+      <c r="B96">
+        <v>31.153333333333329</v>
+      </c>
+      <c r="C96">
+        <v>22.083333333333332</v>
+      </c>
+      <c r="D96">
+        <v>176</v>
+      </c>
+      <c r="E96">
+        <v>59.054393515296752</v>
+      </c>
+      <c r="F96">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>35765</v>
+      </c>
+      <c r="B97">
+        <v>31.935483870967747</v>
+      </c>
+      <c r="C97">
+        <v>21.06451612903226</v>
+      </c>
+      <c r="D97">
+        <v>49.6</v>
+      </c>
+      <c r="E97">
+        <v>53.257491036426067</v>
+      </c>
+      <c r="F97">
+        <v>2.032258064516129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>35796</v>
+      </c>
+      <c r="B98">
+        <v>33.464516129032262</v>
+      </c>
+      <c r="C98">
+        <v>19.816129032258065</v>
+      </c>
+      <c r="D98">
         <v>0</v>
       </c>
-      <c r="E88">
-        <v>55.154672525965545</v>
-      </c>
-      <c r="F88">
+      <c r="E98">
+        <v>44.99970774019009</v>
+      </c>
+      <c r="F98">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>35827</v>
+      </c>
+      <c r="B99">
+        <v>35.664285714285718</v>
+      </c>
+      <c r="C99">
+        <v>21.282142857142855</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>43.568619779457087</v>
+      </c>
+      <c r="F99">
+        <v>3.8214285714285716</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>35855</v>
+      </c>
+      <c r="B100">
+        <v>38.067741935483866</v>
+      </c>
+      <c r="C100">
+        <v>22.825806451612902</v>
+      </c>
+      <c r="D100">
+        <v>1.4</v>
+      </c>
+      <c r="E100">
+        <v>41.96464632814795</v>
+      </c>
+      <c r="F100">
+        <v>3.6774193548387095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>35886</v>
+      </c>
+      <c r="B101">
+        <v>39.393333333333331</v>
+      </c>
+      <c r="C101">
+        <v>25.713333333333331</v>
+      </c>
+      <c r="D101">
+        <v>1.6</v>
+      </c>
+      <c r="E101">
+        <v>46.401044945953686</v>
+      </c>
+      <c r="F101">
+        <v>3.5666666666666669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>35916</v>
+      </c>
+      <c r="B102">
+        <v>37.648387096774194</v>
+      </c>
+      <c r="C102">
+        <v>25.50322580645161</v>
+      </c>
+      <c r="D102">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="E102">
+        <v>50.674630941410669</v>
+      </c>
+      <c r="F102">
+        <v>2.870967741935484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="6">
+        <v>35947</v>
+      </c>
+      <c r="B103">
+        <v>36.593333333333334</v>
+      </c>
+      <c r="C103">
+        <v>24.540000000000006</v>
+      </c>
+      <c r="D103">
+        <v>33.9</v>
+      </c>
+      <c r="E103">
+        <v>50.421819704395936</v>
+      </c>
+      <c r="F103">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
+        <v>35977</v>
+      </c>
+      <c r="B104">
+        <v>34.074193548387093</v>
+      </c>
+      <c r="C104">
+        <v>23.412903225806446</v>
+      </c>
+      <c r="D104">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="E104">
+        <v>54.336467379166216</v>
+      </c>
+      <c r="F104">
+        <v>3.193548387096774</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
+        <v>36008</v>
+      </c>
+      <c r="B105">
+        <v>32.358064516129033</v>
+      </c>
+      <c r="C105">
+        <v>23.016129032258061</v>
+      </c>
+      <c r="D105">
+        <v>240.30000000000004</v>
+      </c>
+      <c r="E105">
+        <v>58.19323151540727</v>
+      </c>
+      <c r="F105">
+        <v>2.225806451612903</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
+        <v>36039</v>
+      </c>
+      <c r="B106">
+        <v>32.486666666666665</v>
+      </c>
+      <c r="C106">
+        <v>22.786666666666665</v>
+      </c>
+      <c r="D106">
+        <v>177.1</v>
+      </c>
+      <c r="E106">
+        <v>57.168922845967373</v>
+      </c>
+      <c r="F106">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>36069</v>
+      </c>
+      <c r="B107">
+        <v>31.812903225806458</v>
+      </c>
+      <c r="C107">
+        <v>22.003225806451617</v>
+      </c>
+      <c r="D107">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="E107">
+        <v>56.484728937620091</v>
+      </c>
+      <c r="F107">
+        <v>1.4193548387096775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
+        <v>36100</v>
+      </c>
+      <c r="B108">
+        <v>31.40666666666667</v>
+      </c>
+      <c r="C108">
+        <v>21.306666666666668</v>
+      </c>
+      <c r="D108">
+        <v>105.8</v>
+      </c>
+      <c r="E108">
+        <v>56.398529947754561</v>
+      </c>
+      <c r="F108">
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
+        <v>36130</v>
+      </c>
+      <c r="B109">
+        <v>30.180645161290325</v>
+      </c>
+      <c r="C109">
+        <v>19.825806451612898</v>
+      </c>
+      <c r="D109">
+        <v>102.60000000000001</v>
+      </c>
+      <c r="E109">
+        <v>54.928609464773466</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>36161</v>
+      </c>
+      <c r="B110">
+        <v>32.109677419354831</v>
+      </c>
+      <c r="C110">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>43.680216991835863</v>
+      </c>
+      <c r="F110">
+        <v>2.6774193548387095</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>36192</v>
+      </c>
+      <c r="B111">
+        <v>34.56428571428571</v>
+      </c>
+      <c r="C111">
+        <v>20.124999999999996</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>43.469085949694048</v>
+      </c>
+      <c r="F111">
+        <v>3.1071428571428572</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>36220</v>
+      </c>
+      <c r="B112">
+        <v>37.893548387096786</v>
+      </c>
+      <c r="C112">
+        <v>22.548387096774192</v>
+      </c>
+      <c r="D112">
+        <v>0.2</v>
+      </c>
+      <c r="E112">
+        <v>41.870629735112303</v>
+      </c>
+      <c r="F112">
+        <v>2.6451612903225805</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
+        <v>36251</v>
+      </c>
+      <c r="B113">
+        <v>37.126666666666665</v>
+      </c>
+      <c r="C113">
+        <v>23.943333333333332</v>
+      </c>
+      <c r="D113">
+        <v>64.200000000000017</v>
+      </c>
+      <c r="E113">
+        <v>47.684893624659772</v>
+      </c>
+      <c r="F113">
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>36281</v>
+      </c>
+      <c r="B114">
+        <v>34.622580645161278</v>
+      </c>
+      <c r="C114">
+        <v>23.503225806451617</v>
+      </c>
+      <c r="D114">
+        <v>148</v>
+      </c>
+      <c r="E114">
+        <v>52.991708321699882</v>
+      </c>
+      <c r="F114">
+        <v>2.7096774193548385</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="6">
+        <v>36312</v>
+      </c>
+      <c r="B115">
+        <v>33.986666666666665</v>
+      </c>
+      <c r="C115">
+        <v>23.140000000000004</v>
+      </c>
+      <c r="D115">
+        <v>82.1</v>
+      </c>
+      <c r="E115">
+        <v>53.510180103696648</v>
+      </c>
+      <c r="F115">
+        <v>3.1333333333333333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
+        <v>36342</v>
+      </c>
+      <c r="B116">
+        <v>34.438709677419361</v>
+      </c>
+      <c r="C116">
+        <v>23.412903225806446</v>
+      </c>
+      <c r="D116">
+        <v>38.199999999999996</v>
+      </c>
+      <c r="E116">
+        <v>53.128800183294125</v>
+      </c>
+      <c r="F116">
+        <v>3.5806451612903225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>36373</v>
+      </c>
+      <c r="B117">
+        <v>33.400000000000006</v>
+      </c>
+      <c r="C117">
+        <v>23.0741935483871</v>
+      </c>
+      <c r="D117">
+        <v>78.8</v>
+      </c>
+      <c r="E117">
+        <v>55.310481766059084</v>
+      </c>
+      <c r="F117">
+        <v>2.806451612903226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <v>36404</v>
+      </c>
+      <c r="B118">
+        <v>35.110000000000007</v>
+      </c>
+      <c r="C118">
+        <v>23.036666666666669</v>
+      </c>
+      <c r="D118">
+        <v>177.39999999999998</v>
+      </c>
+      <c r="E118">
+        <v>50.129209719434037</v>
+      </c>
+      <c r="F118">
+        <v>2.2333333333333334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>36465</v>
+      </c>
+      <c r="B119">
+        <v>31.73</v>
+      </c>
+      <c r="C119">
+        <v>20.746666666666666</v>
+      </c>
+      <c r="D119">
+        <v>119.89999999999999</v>
+      </c>
+      <c r="E119">
+        <v>53.428989141998791</v>
+      </c>
+      <c r="F119">
+        <v>1.5333333333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
+        <v>36495</v>
+      </c>
+      <c r="B120">
+        <v>30.367741935483874</v>
+      </c>
+      <c r="C120">
+        <v>19.164516129032258</v>
+      </c>
+      <c r="D120">
+        <v>22</v>
+      </c>
+      <c r="E120">
+        <v>51.93264691325318</v>
+      </c>
+      <c r="F120">
+        <v>1.6451612903225807</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>36526</v>
+      </c>
+      <c r="B121">
+        <v>31.887096774193541</v>
+      </c>
+      <c r="C121">
+        <v>19.354838709677423</v>
+      </c>
+      <c r="D121">
+        <v>0.6</v>
+      </c>
+      <c r="E121">
+        <v>48.321298635563934</v>
+      </c>
+      <c r="F121">
+        <v>2.4193548387096775</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
+        <v>36557</v>
+      </c>
+      <c r="B122">
+        <v>34.30344827586206</v>
+      </c>
+      <c r="C122">
+        <v>21.662068965517239</v>
+      </c>
+      <c r="D122">
+        <v>1.7</v>
+      </c>
+      <c r="E122">
+        <v>48.210666918768723</v>
+      </c>
+      <c r="F122">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>36586</v>
+      </c>
+      <c r="B123">
+        <v>36.825806451612898</v>
+      </c>
+      <c r="C123">
+        <v>22.277419354838713</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>43.610222863733341</v>
+      </c>
+      <c r="F123">
+        <v>2.193548387096774</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <v>36617</v>
+      </c>
+      <c r="B124">
+        <v>37.827586206896541</v>
+      </c>
+      <c r="C124">
+        <v>24.7</v>
+      </c>
+      <c r="D124">
+        <v>65.3</v>
+      </c>
+      <c r="E124">
+        <v>47.721664766296179</v>
+      </c>
+      <c r="F124">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <v>36647</v>
+      </c>
+      <c r="B125">
+        <v>37.151612903225811</v>
+      </c>
+      <c r="C125">
+        <v>25.722580645161294</v>
+      </c>
+      <c r="D125">
+        <v>110.7</v>
+      </c>
+      <c r="E125">
+        <v>52.614547650613446</v>
+      </c>
+      <c r="F125">
+        <v>2.838709677419355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
+        <v>36678</v>
+      </c>
+      <c r="B126">
+        <v>33.50333333333333</v>
+      </c>
+      <c r="C126">
+        <v>24.316666666666666</v>
+      </c>
+      <c r="D126">
+        <v>53</v>
+      </c>
+      <c r="E126">
+        <v>59.006897266858068</v>
+      </c>
+      <c r="F126">
+        <v>2.9333333333333331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
+        <v>36708</v>
+      </c>
+      <c r="B127">
+        <v>34.725806451612904</v>
+      </c>
+      <c r="C127">
+        <v>24.235483870967744</v>
+      </c>
+      <c r="D127">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="E127">
+        <v>54.815378203631447</v>
+      </c>
+      <c r="F127">
         <v>3.2903225806451615</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89">
-        <v>32.04</v>
-      </c>
-      <c r="C89">
-        <v>22.693333333333328</v>
-      </c>
-      <c r="D89">
-        <v>7.5</v>
-      </c>
-      <c r="E89">
-        <v>58.038213876829467</v>
-      </c>
-      <c r="F89">
-        <v>1.8666666666666667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90">
-        <v>31.776666666666664</v>
-      </c>
-      <c r="C90">
-        <v>22.156666666666663</v>
-      </c>
-      <c r="D90">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
+        <v>36739</v>
+      </c>
+      <c r="B128">
+        <v>31.680645161290325</v>
+      </c>
+      <c r="C128">
+        <v>23.07741935483871</v>
+      </c>
+      <c r="D128">
+        <v>228.99999999999994</v>
+      </c>
+      <c r="E128">
+        <v>60.738683219734348</v>
+      </c>
+      <c r="F128">
+        <v>2.4193548387096775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
+        <v>36770</v>
+      </c>
+      <c r="B129">
+        <v>31.894736842105257</v>
+      </c>
+      <c r="C129">
+        <v>23.157894736842106</v>
+      </c>
+      <c r="D129">
+        <v>334</v>
+      </c>
+      <c r="E129">
+        <v>60.519872763150559</v>
+      </c>
+      <c r="F129">
+        <v>1.5789473684210527</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
+        <v>36800</v>
+      </c>
+      <c r="B130">
+        <v>31.816129032258065</v>
+      </c>
+      <c r="C130">
+        <v>22.564516129032253</v>
+      </c>
+      <c r="D130">
+        <v>200.19999999999996</v>
+      </c>
+      <c r="E130">
+        <v>58.721561240629811</v>
+      </c>
+      <c r="F130">
+        <v>1.096774193548387</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <v>36831</v>
+      </c>
+      <c r="B131">
+        <v>31.09</v>
+      </c>
+      <c r="C131">
+        <v>22.013333333333328</v>
+      </c>
+      <c r="D131">
+        <v>153</v>
+      </c>
+      <c r="E131">
+        <v>59.037615422207587</v>
+      </c>
+      <c r="F131">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
+        <v>36861</v>
+      </c>
+      <c r="B132">
+        <v>29.948387096774191</v>
+      </c>
+      <c r="C132">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="D132">
+        <v>30.200000000000003</v>
+      </c>
+      <c r="E132">
+        <v>53.520821601108771</v>
+      </c>
+      <c r="F132">
+        <v>1.5806451612903225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
+        <v>36892</v>
+      </c>
+      <c r="B133">
+        <v>31.522580645161284</v>
+      </c>
+      <c r="C133">
+        <v>20.222580645161287</v>
+      </c>
+      <c r="D133">
         <v>0</v>
       </c>
-      <c r="E90">
-        <v>57.433567795813211</v>
-      </c>
-      <c r="F90">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91">
-        <v>31.673333333333336</v>
-      </c>
-      <c r="C91">
-        <v>21.04666666666667</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>54.288391420025661</v>
-      </c>
-      <c r="F91">
-        <v>1.4666666666666666</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92">
-        <v>29.374193548387098</v>
-      </c>
-      <c r="C92">
-        <v>18.619354838709679</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>54.848319573639579</v>
-      </c>
-      <c r="F92">
-        <v>1.6451612903225807</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94">
-        <v>31.925806451612889</v>
-      </c>
-      <c r="C94">
-        <v>19.145161290322577</v>
-      </c>
-      <c r="D94">
-        <v>0.7</v>
-      </c>
-      <c r="E94">
-        <v>47.182048395205179</v>
-      </c>
-      <c r="F94">
-        <v>3.129032258064516</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95">
-        <v>34.917857142857152</v>
-      </c>
-      <c r="C95">
-        <v>19.325925925925926</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>40.505081219406833</v>
-      </c>
-      <c r="F95">
-        <v>2.9642857142857144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96">
-        <v>37.138709677419349</v>
-      </c>
-      <c r="C96">
-        <v>21.654838709677417</v>
-      </c>
-      <c r="D96">
-        <v>27.3</v>
-      </c>
-      <c r="E96">
-        <v>41.168496879621564</v>
-      </c>
-      <c r="F96">
-        <v>3.225806451612903</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97">
-        <v>36.083333333333336</v>
-      </c>
-      <c r="C97">
-        <v>23.766666666666662</v>
-      </c>
-      <c r="D97">
-        <v>54.7</v>
-      </c>
-      <c r="E97">
-        <v>49.578090975722326</v>
-      </c>
-      <c r="F97">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98">
-        <v>37.083870967741937</v>
-      </c>
-      <c r="C98">
-        <v>24.78387096774193</v>
-      </c>
-      <c r="D98">
-        <v>67.2</v>
-      </c>
-      <c r="E98">
-        <v>49.933592070001545</v>
-      </c>
-      <c r="F98">
-        <v>2.806451612903226</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99">
-        <v>36.833333333333329</v>
-      </c>
-      <c r="C99">
-        <v>24.56</v>
-      </c>
-      <c r="D99">
-        <v>50.3</v>
-      </c>
-      <c r="E99">
-        <v>49.799482542266766</v>
-      </c>
-      <c r="F99">
-        <v>3.5666666666666669</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100">
-        <v>34.212903225806457</v>
-      </c>
-      <c r="C100">
-        <v>23.403225806451609</v>
-      </c>
-      <c r="D100">
-        <v>54.400000000000006</v>
-      </c>
-      <c r="E100">
-        <v>53.782093705840147</v>
-      </c>
-      <c r="F100">
-        <v>3.903225806451613</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101">
-        <v>33.412903225806453</v>
-      </c>
-      <c r="C101">
-        <v>23.07741935483871</v>
-      </c>
-      <c r="D101">
-        <v>175.3</v>
-      </c>
-      <c r="E101">
-        <v>55.099299570227281</v>
-      </c>
-      <c r="F101">
-        <v>3.3548387096774195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102">
-        <v>33.190000000000005</v>
-      </c>
-      <c r="C102">
-        <v>22.720000000000006</v>
-      </c>
-      <c r="D102">
-        <v>164.10000000000002</v>
-      </c>
-      <c r="E102">
-        <v>54.491153387229012</v>
-      </c>
-      <c r="F102">
-        <v>1.8666666666666667</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B103">
-        <v>32.658064516129031</v>
-      </c>
-      <c r="C103">
-        <v>21.983870967741932</v>
-      </c>
-      <c r="D103">
-        <v>287.59999999999997</v>
-      </c>
-      <c r="E103">
-        <v>53.697160857324832</v>
-      </c>
-      <c r="F103">
-        <v>1.5161290322580645</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104">
-        <v>31.153333333333329</v>
-      </c>
-      <c r="C104">
-        <v>22.083333333333332</v>
-      </c>
-      <c r="D104">
-        <v>176</v>
-      </c>
-      <c r="E104">
-        <v>59.054393515296752</v>
-      </c>
-      <c r="F104">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105">
-        <v>31.935483870967747</v>
-      </c>
-      <c r="C105">
-        <v>21.06451612903226</v>
-      </c>
-      <c r="D105">
-        <v>49.6</v>
-      </c>
-      <c r="E105">
-        <v>53.257491036426067</v>
-      </c>
-      <c r="F105">
-        <v>2.032258064516129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107">
-        <v>33.464516129032262</v>
-      </c>
-      <c r="C107">
-        <v>19.816129032258065</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>44.99970774019009</v>
-      </c>
-      <c r="F107">
-        <v>3.225806451612903</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108">
-        <v>35.664285714285718</v>
-      </c>
-      <c r="C108">
-        <v>21.282142857142855</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>43.568619779457087</v>
-      </c>
-      <c r="F108">
-        <v>3.8214285714285716</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109">
-        <v>38.067741935483866</v>
-      </c>
-      <c r="C109">
-        <v>22.825806451612902</v>
-      </c>
-      <c r="D109">
-        <v>1.4</v>
-      </c>
-      <c r="E109">
-        <v>41.96464632814795</v>
-      </c>
-      <c r="F109">
-        <v>3.6774193548387095</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110">
-        <v>39.393333333333331</v>
-      </c>
-      <c r="C110">
-        <v>25.713333333333331</v>
-      </c>
-      <c r="D110">
-        <v>1.6</v>
-      </c>
-      <c r="E110">
-        <v>46.401044945953686</v>
-      </c>
-      <c r="F110">
-        <v>3.5666666666666669</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111">
-        <v>37.648387096774194</v>
-      </c>
-      <c r="C111">
-        <v>25.50322580645161</v>
-      </c>
-      <c r="D111">
-        <v>146.80000000000001</v>
-      </c>
-      <c r="E111">
-        <v>50.674630941410669</v>
-      </c>
-      <c r="F111">
-        <v>2.870967741935484</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112">
-        <v>36.593333333333334</v>
-      </c>
-      <c r="C112">
-        <v>24.540000000000006</v>
-      </c>
-      <c r="D112">
-        <v>33.9</v>
-      </c>
-      <c r="E112">
-        <v>50.421819704395936</v>
-      </c>
-      <c r="F112">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113">
-        <v>34.074193548387093</v>
-      </c>
-      <c r="C113">
-        <v>23.412903225806446</v>
-      </c>
-      <c r="D113">
-        <v>130.69999999999999</v>
-      </c>
-      <c r="E113">
-        <v>54.336467379166216</v>
-      </c>
-      <c r="F113">
-        <v>3.193548387096774</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114">
-        <v>32.358064516129033</v>
-      </c>
-      <c r="C114">
-        <v>23.016129032258061</v>
-      </c>
-      <c r="D114">
-        <v>240.30000000000004</v>
-      </c>
-      <c r="E114">
-        <v>58.19323151540727</v>
-      </c>
-      <c r="F114">
-        <v>2.225806451612903</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115">
-        <v>32.486666666666665</v>
-      </c>
-      <c r="C115">
-        <v>22.786666666666665</v>
-      </c>
-      <c r="D115">
-        <v>177.1</v>
-      </c>
-      <c r="E115">
-        <v>57.168922845967373</v>
-      </c>
-      <c r="F115">
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B116">
-        <v>31.812903225806458</v>
-      </c>
-      <c r="C116">
-        <v>22.003225806451617</v>
-      </c>
-      <c r="D116">
-        <v>257.60000000000002</v>
-      </c>
-      <c r="E116">
-        <v>56.484728937620091</v>
-      </c>
-      <c r="F116">
-        <v>1.4193548387096775</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117">
-        <v>31.40666666666667</v>
-      </c>
-      <c r="C117">
-        <v>21.306666666666668</v>
-      </c>
-      <c r="D117">
-        <v>105.8</v>
-      </c>
-      <c r="E117">
-        <v>56.398529947754561</v>
-      </c>
-      <c r="F117">
-        <v>1.1333333333333333</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B118">
-        <v>30.180645161290325</v>
-      </c>
-      <c r="C118">
-        <v>19.825806451612898</v>
-      </c>
-      <c r="D118">
-        <v>102.60000000000001</v>
-      </c>
-      <c r="E118">
-        <v>54.928609464773466</v>
-      </c>
-      <c r="F118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120">
-        <v>32.109677419354831</v>
-      </c>
-      <c r="C120">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>43.680216991835863</v>
-      </c>
-      <c r="F120">
-        <v>2.6774193548387095</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121">
-        <v>34.56428571428571</v>
-      </c>
-      <c r="C121">
-        <v>20.124999999999996</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>43.469085949694048</v>
-      </c>
-      <c r="F121">
-        <v>3.1071428571428572</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122">
-        <v>37.893548387096786</v>
-      </c>
-      <c r="C122">
-        <v>22.548387096774192</v>
-      </c>
-      <c r="D122">
-        <v>0.2</v>
-      </c>
-      <c r="E122">
-        <v>41.870629735112303</v>
-      </c>
-      <c r="F122">
-        <v>2.6451612903225805</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123">
-        <v>37.126666666666665</v>
-      </c>
-      <c r="C123">
-        <v>23.943333333333332</v>
-      </c>
-      <c r="D123">
-        <v>64.200000000000017</v>
-      </c>
-      <c r="E123">
-        <v>47.684893624659772</v>
-      </c>
-      <c r="F123">
-        <v>3.1666666666666665</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124">
-        <v>34.622580645161278</v>
-      </c>
-      <c r="C124">
-        <v>23.503225806451617</v>
-      </c>
-      <c r="D124">
-        <v>148</v>
-      </c>
-      <c r="E124">
-        <v>52.991708321699882</v>
-      </c>
-      <c r="F124">
-        <v>2.7096774193548385</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125">
-        <v>33.986666666666665</v>
-      </c>
-      <c r="C125">
-        <v>23.140000000000004</v>
-      </c>
-      <c r="D125">
-        <v>82.1</v>
-      </c>
-      <c r="E125">
-        <v>53.510180103696648</v>
-      </c>
-      <c r="F125">
-        <v>3.1333333333333333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126">
-        <v>34.438709677419361</v>
-      </c>
-      <c r="C126">
-        <v>23.412903225806446</v>
-      </c>
-      <c r="D126">
-        <v>38.199999999999996</v>
-      </c>
-      <c r="E126">
-        <v>53.128800183294125</v>
-      </c>
-      <c r="F126">
-        <v>3.5806451612903225</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127">
-        <v>33.400000000000006</v>
-      </c>
-      <c r="C127">
-        <v>23.0741935483871</v>
-      </c>
-      <c r="D127">
-        <v>78.8</v>
-      </c>
-      <c r="E127">
-        <v>55.310481766059084</v>
-      </c>
-      <c r="F127">
-        <v>2.806451612903226</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128">
-        <v>35.110000000000007</v>
-      </c>
-      <c r="C128">
-        <v>23.036666666666669</v>
-      </c>
-      <c r="D128">
-        <v>177.39999999999998</v>
-      </c>
-      <c r="E128">
-        <v>50.129209719434037</v>
-      </c>
-      <c r="F128">
-        <v>2.2333333333333334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129">
-        <v>31.73</v>
-      </c>
-      <c r="C129">
-        <v>20.746666666666666</v>
-      </c>
-      <c r="D129">
-        <v>119.89999999999999</v>
-      </c>
-      <c r="E129">
-        <v>53.428989141998791</v>
-      </c>
-      <c r="F129">
-        <v>1.5333333333333334</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130">
-        <v>30.367741935483874</v>
-      </c>
-      <c r="C130">
-        <v>19.164516129032258</v>
-      </c>
-      <c r="D130">
-        <v>22</v>
-      </c>
-      <c r="E130">
-        <v>51.93264691325318</v>
-      </c>
-      <c r="F130">
-        <v>1.6451612903225807</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B132">
-        <v>31.887096774193541</v>
-      </c>
-      <c r="C132">
-        <v>19.354838709677423</v>
-      </c>
-      <c r="D132">
-        <v>0.6</v>
-      </c>
-      <c r="E132">
-        <v>48.321298635563934</v>
-      </c>
-      <c r="F132">
-        <v>2.4193548387096775</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133">
-        <v>34.30344827586206</v>
-      </c>
-      <c r="C133">
-        <v>21.662068965517239</v>
-      </c>
-      <c r="D133">
-        <v>1.7</v>
-      </c>
       <c r="E133">
-        <v>48.210666918768723</v>
+        <v>51.557987564590505</v>
       </c>
       <c r="F133">
-        <v>3.25</v>
+        <v>2.4516129032258065</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>9</v>
+      <c r="A134" s="6">
+        <v>36923</v>
       </c>
       <c r="B134">
-        <v>36.825806451612898</v>
+        <v>35.385714285714286</v>
       </c>
       <c r="C134">
-        <v>22.277419354838713</v>
+        <v>21.01071428571429</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>43.610222863733341</v>
+        <v>43.866016127680368</v>
       </c>
       <c r="F134">
-        <v>2.193548387096774</v>
+        <v>2.1785714285714284</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>10</v>
+      <c r="A135" s="6">
+        <v>36951</v>
       </c>
       <c r="B135">
-        <v>37.827586206896541</v>
+        <v>36.645161290322584</v>
       </c>
       <c r="C135">
-        <v>24.7</v>
+        <v>23.845161290322583</v>
       </c>
       <c r="D135">
-        <v>65.3</v>
+        <v>1.9</v>
       </c>
       <c r="E135">
-        <v>47.721664766296179</v>
+        <v>48.215633916849214</v>
       </c>
       <c r="F135">
-        <v>2.6666666666666665</v>
+        <v>2.4516129032258065</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>11</v>
+      <c r="A136" s="6">
+        <v>36982</v>
       </c>
       <c r="B136">
-        <v>37.151612903225811</v>
+        <v>35.910000000000004</v>
       </c>
       <c r="C136">
-        <v>25.722580645161294</v>
+        <v>25.173333333333336</v>
       </c>
       <c r="D136">
-        <v>110.7</v>
+        <v>63.6</v>
       </c>
       <c r="E136">
-        <v>52.614547650613446</v>
+        <v>54.555143338023264</v>
       </c>
       <c r="F136">
-        <v>2.838709677419355</v>
+        <v>2.0333333333333332</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>12</v>
+      <c r="A137" s="6">
+        <v>37012</v>
       </c>
       <c r="B137">
-        <v>33.50333333333333</v>
+        <v>36.667741935483875</v>
       </c>
       <c r="C137">
-        <v>24.316666666666666</v>
+        <v>25.769999999999996</v>
       </c>
       <c r="D137">
-        <v>53</v>
+        <v>110.9</v>
       </c>
       <c r="E137">
-        <v>59.006897266858068</v>
+        <v>53.919539151523807</v>
       </c>
       <c r="F137">
-        <v>2.9333333333333331</v>
+        <v>2.3225806451612905</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>13</v>
+      <c r="A138" s="6">
+        <v>37043</v>
       </c>
       <c r="B138">
-        <v>34.725806451612904</v>
+        <v>34.363333333333337</v>
       </c>
       <c r="C138">
-        <v>24.235483870967744</v>
+        <v>24.590000000000007</v>
       </c>
       <c r="D138">
-        <v>72.099999999999994</v>
+        <v>11.6</v>
       </c>
       <c r="E138">
-        <v>54.815378203631447</v>
+        <v>57.372290858275051</v>
       </c>
       <c r="F138">
-        <v>3.2903225806451615</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>14</v>
+      <c r="A139" s="6">
+        <v>37073</v>
       </c>
       <c r="B139">
-        <v>31.680645161290325</v>
+        <v>33.174193548387102</v>
       </c>
       <c r="C139">
-        <v>23.07741935483871</v>
+        <v>24.029032258064511</v>
       </c>
       <c r="D139">
-        <v>228.99999999999994</v>
+        <v>213.8</v>
       </c>
       <c r="E139">
-        <v>60.738683219734348</v>
+        <v>59.116506113248604</v>
       </c>
       <c r="F139">
-        <v>2.4193548387096775</v>
+        <v>2.4838709677419355</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>15</v>
+      <c r="A140" s="6">
+        <v>37104</v>
       </c>
       <c r="B140">
-        <v>31.894736842105257</v>
+        <v>31.951612903225811</v>
       </c>
       <c r="C140">
-        <v>23.157894736842106</v>
+        <v>23.525806451612901</v>
       </c>
       <c r="D140">
-        <v>334</v>
+        <v>90.40000000000002</v>
       </c>
       <c r="E140">
-        <v>60.519872763150559</v>
+        <v>61.395266748955734</v>
       </c>
       <c r="F140">
-        <v>1.5789473684210527</v>
+        <v>1.903225806451613</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>16</v>
+      <c r="A141" s="6">
+        <v>37135</v>
       </c>
       <c r="B141">
-        <v>31.816129032258065</v>
+        <v>32.890000000000008</v>
       </c>
       <c r="C141">
-        <v>22.564516129032253</v>
+        <v>23.596666666666671</v>
       </c>
       <c r="D141">
-        <v>200.19999999999996</v>
+        <v>304.10000000000002</v>
       </c>
       <c r="E141">
-        <v>58.721561240629811</v>
+        <v>58.795710326523022</v>
       </c>
       <c r="F141">
-        <v>1.096774193548387</v>
+        <v>1.3666666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>17</v>
+      <c r="A142" s="6">
+        <v>37165</v>
       </c>
       <c r="B142">
-        <v>31.09</v>
+        <v>30.690322580645169</v>
       </c>
       <c r="C142">
-        <v>22.013333333333328</v>
+        <v>23.177419354838712</v>
       </c>
       <c r="D142">
-        <v>153</v>
+        <v>145.99999999999997</v>
       </c>
       <c r="E142">
-        <v>59.037615422207587</v>
+        <v>64.740498757338429</v>
       </c>
       <c r="F142">
-        <v>1.6</v>
+        <v>1.1935483870967742</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>18</v>
+      <c r="A143" s="6">
+        <v>37196</v>
       </c>
       <c r="B143">
-        <v>29.948387096774191</v>
+        <v>30.406666666666663</v>
       </c>
       <c r="C143">
-        <v>19.200000000000003</v>
+        <v>21.926666666666669</v>
       </c>
       <c r="D143">
-        <v>30.200000000000003</v>
+        <v>91.2</v>
       </c>
       <c r="E143">
-        <v>53.520821601108771</v>
+        <v>61.040305048515471</v>
       </c>
       <c r="F143">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
+        <v>37226</v>
+      </c>
+      <c r="B144">
+        <v>30.029032258064511</v>
+      </c>
+      <c r="C144">
+        <v>19.945161290322584</v>
+      </c>
+      <c r="D144">
+        <v>31.700000000000003</v>
+      </c>
+      <c r="E144">
+        <v>55.995407210385075</v>
+      </c>
+      <c r="F144">
         <v>1.5806451612903225</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-    </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>7</v>
+      <c r="A145" s="6">
+        <v>37257</v>
       </c>
       <c r="B145">
-        <v>31.522580645161284</v>
+        <v>31.758064516129036</v>
       </c>
       <c r="C145">
-        <v>20.222580645161287</v>
+        <v>21.041935483870965</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>51.557987564590505</v>
+        <v>53.582508519400463</v>
       </c>
       <c r="F145">
-        <v>2.4516129032258065</v>
+        <v>2.2580645161290325</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>8</v>
+      <c r="A146" s="6">
+        <v>37288</v>
       </c>
       <c r="B146">
-        <v>35.385714285714286</v>
+        <v>33.196428571428569</v>
       </c>
       <c r="C146">
-        <v>21.01071428571429</v>
+        <v>20.778571428571432</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E146">
-        <v>43.866016127680368</v>
+        <v>49.367670140412031</v>
       </c>
       <c r="F146">
-        <v>2.1785714285714284</v>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>9</v>
+      <c r="A147" s="6">
+        <v>37316</v>
       </c>
       <c r="B147">
-        <v>36.645161290322584</v>
+        <v>36.78064516129033</v>
       </c>
       <c r="C147">
-        <v>23.845161290322583</v>
+        <v>23.248387096774191</v>
       </c>
       <c r="D147">
-        <v>1.9</v>
+        <v>17.8</v>
       </c>
       <c r="E147">
-        <v>48.215633916849214</v>
+        <v>46.661258275752921</v>
       </c>
       <c r="F147">
-        <v>2.4516129032258065</v>
+        <v>2.5806451612903225</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>10</v>
+      <c r="A148" s="6">
+        <v>37347</v>
       </c>
       <c r="B148">
-        <v>35.910000000000004</v>
+        <v>37.940000000000012</v>
       </c>
       <c r="C148">
-        <v>25.173333333333336</v>
+        <v>26.326666666666668</v>
       </c>
       <c r="D148">
-        <v>63.6</v>
+        <v>14.6</v>
       </c>
       <c r="E148">
-        <v>54.555143338023264</v>
+        <v>51.958527588617265</v>
       </c>
       <c r="F148">
-        <v>2.0333333333333332</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>11</v>
+      <c r="A149" s="6">
+        <v>37377</v>
       </c>
       <c r="B149">
-        <v>36.667741935483875</v>
+        <v>36.900000000000006</v>
       </c>
       <c r="C149">
-        <v>25.769999999999996</v>
+        <v>26.048387096774196</v>
       </c>
       <c r="D149">
-        <v>110.9</v>
+        <v>93.1</v>
       </c>
       <c r="E149">
-        <v>53.919539151523807</v>
+        <v>54.392133823032637</v>
       </c>
       <c r="F149">
-        <v>2.3225806451612905</v>
+        <v>2.6129032258064515</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>12</v>
+      <c r="A150" s="6">
+        <v>37408</v>
       </c>
       <c r="B150">
-        <v>34.363333333333337</v>
+        <v>35.000000000000007</v>
       </c>
       <c r="C150">
-        <v>24.590000000000007</v>
+        <v>25.336666666666666</v>
       </c>
       <c r="D150">
-        <v>11.6</v>
+        <v>26.5</v>
       </c>
       <c r="E150">
-        <v>57.372290858275051</v>
+        <v>57.853827274002917</v>
       </c>
       <c r="F150">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>13</v>
+      <c r="A151" s="6">
+        <v>37438</v>
       </c>
       <c r="B151">
-        <v>33.174193548387102</v>
+        <v>35.438709677419354</v>
       </c>
       <c r="C151">
-        <v>24.029032258064511</v>
+        <v>24.832258064516132</v>
       </c>
       <c r="D151">
-        <v>213.8</v>
+        <v>77.799999999999983</v>
       </c>
       <c r="E151">
-        <v>59.116506113248604</v>
+        <v>54.61599238862275</v>
       </c>
       <c r="F151">
         <v>2.4838709677419355</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>14</v>
+      <c r="A152" s="6">
+        <v>37469</v>
       </c>
       <c r="B152">
-        <v>31.951612903225811</v>
+        <v>33.41612903225807</v>
       </c>
       <c r="C152">
-        <v>23.525806451612901</v>
+        <v>23.890322580645162</v>
       </c>
       <c r="D152">
-        <v>90.40000000000002</v>
+        <v>152.69999999999996</v>
       </c>
       <c r="E152">
-        <v>61.395266748955734</v>
+        <v>57.79443138705328</v>
       </c>
       <c r="F152">
-        <v>1.903225806451613</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>15</v>
+      <c r="A153" s="6">
+        <v>37500</v>
       </c>
       <c r="B153">
-        <v>32.890000000000008</v>
+        <v>34.243333333333339</v>
       </c>
       <c r="C153">
-        <v>23.596666666666671</v>
+        <v>23.953333333333333</v>
       </c>
       <c r="D153">
-        <v>304.10000000000002</v>
+        <v>88.899999999999991</v>
       </c>
       <c r="E153">
-        <v>58.795710326523022</v>
+        <v>55.351564593182147</v>
       </c>
       <c r="F153">
-        <v>1.3666666666666667</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>16</v>
+      <c r="A154" s="6">
+        <v>37530</v>
       </c>
       <c r="B154">
-        <v>30.690322580645169</v>
+        <v>31.964516129032265</v>
       </c>
       <c r="C154">
-        <v>23.177419354838712</v>
+        <v>23.748387096774202</v>
       </c>
       <c r="D154">
-        <v>145.99999999999997</v>
+        <v>178.8</v>
       </c>
       <c r="E154">
-        <v>64.740498757338429</v>
+        <v>62.311094319406259</v>
       </c>
       <c r="F154">
-        <v>1.1935483870967742</v>
+        <v>1.1290322580645162</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>17</v>
+      <c r="A155" s="6">
+        <v>37561</v>
       </c>
       <c r="B155">
-        <v>30.406666666666663</v>
+        <v>31.383333333333336</v>
       </c>
       <c r="C155">
-        <v>21.926666666666669</v>
+        <v>22.266666666666666</v>
       </c>
       <c r="D155">
-        <v>91.2</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="E155">
-        <v>61.040305048515471</v>
+        <v>59.422067521582356</v>
       </c>
       <c r="F155">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>18</v>
+      <c r="A156" s="6">
+        <v>37591</v>
       </c>
       <c r="B156">
-        <v>30.029032258064511</v>
+        <v>31.91935483870968</v>
       </c>
       <c r="C156">
-        <v>19.945161290322584</v>
+        <v>19.483870967741936</v>
       </c>
       <c r="D156">
-        <v>31.700000000000003</v>
+        <v>4.2</v>
       </c>
       <c r="E156">
-        <v>55.995407210385075</v>
+        <v>48.536841419005484</v>
       </c>
       <c r="F156">
-        <v>1.5806451612903225</v>
+        <v>1.8709677419354838</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
+      <c r="A157" s="6">
+        <v>37622</v>
+      </c>
+      <c r="B157">
+        <v>32.777419354838706</v>
+      </c>
+      <c r="C157">
+        <v>20.36451612903226</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>48.509492667565944</v>
+      </c>
+      <c r="F157">
+        <v>3.129032258064516</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>7</v>
+      <c r="A158" s="6">
+        <v>37653</v>
       </c>
       <c r="B158">
-        <v>31.758064516129036</v>
+        <v>35.471428571428568</v>
       </c>
       <c r="C158">
-        <v>21.041935483870965</v>
+        <v>22.478571428571431</v>
       </c>
       <c r="D158">
+        <v>4.7</v>
+      </c>
+      <c r="E158">
+        <v>47.416367723299736</v>
+      </c>
+      <c r="F158">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>37681</v>
+      </c>
+      <c r="B159">
+        <v>36.964516129032255</v>
+      </c>
+      <c r="C159">
+        <v>23.403225806451619</v>
+      </c>
+      <c r="D159">
+        <v>14.9</v>
+      </c>
+      <c r="E159">
+        <v>46.274334101734169</v>
+      </c>
+      <c r="F159">
+        <v>3.5806451612903225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
+        <v>37712</v>
+      </c>
+      <c r="B160">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="C160">
+        <v>26.08</v>
+      </c>
+      <c r="D160">
+        <v>84.9</v>
+      </c>
+      <c r="E160">
+        <v>51.108540524791188</v>
+      </c>
+      <c r="F160">
+        <v>3.2333333333333334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>37742</v>
+      </c>
+      <c r="B161">
+        <v>37.287096774193543</v>
+      </c>
+      <c r="C161">
+        <v>25.980645161290315</v>
+      </c>
+      <c r="D161">
+        <v>106.2</v>
+      </c>
+      <c r="E161">
+        <v>53.423805568376963</v>
+      </c>
+      <c r="F161">
+        <v>2.6774193548387095</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
+        <v>37773</v>
+      </c>
+      <c r="B162">
+        <v>36.08666666666668</v>
+      </c>
+      <c r="C162">
+        <v>25.373333333333331</v>
+      </c>
+      <c r="D162">
+        <v>61.1</v>
+      </c>
+      <c r="E162">
+        <v>54.638717603573596</v>
+      </c>
+      <c r="F162">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
+        <v>37803</v>
+      </c>
+      <c r="B163">
+        <v>33.670967741935485</v>
+      </c>
+      <c r="C163">
+        <v>24.590322580645161</v>
+      </c>
+      <c r="D163">
+        <v>108.2</v>
+      </c>
+      <c r="E163">
+        <v>59.616827400265912</v>
+      </c>
+      <c r="F163">
+        <v>2.3548387096774195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
+        <v>37834</v>
+      </c>
+      <c r="B164">
+        <v>32.645161290322591</v>
+      </c>
+      <c r="C164">
+        <v>24.074193548387097</v>
+      </c>
+      <c r="D164">
+        <v>119.80000000000003</v>
+      </c>
+      <c r="E164">
+        <v>61.039885641742643</v>
+      </c>
+      <c r="F164">
+        <v>1.8064516129032258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
+        <v>37865</v>
+      </c>
+      <c r="B165">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="C165">
+        <v>24.346666666666668</v>
+      </c>
+      <c r="D165">
+        <v>132</v>
+      </c>
+      <c r="E165">
+        <v>54.203010290873209</v>
+      </c>
+      <c r="F165">
+        <v>2.2666666666666666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
+        <v>37895</v>
+      </c>
+      <c r="B166">
+        <v>31.670967741935481</v>
+      </c>
+      <c r="C166">
+        <v>23.35161290322581</v>
+      </c>
+      <c r="D166">
+        <v>267.70000000000005</v>
+      </c>
+      <c r="E166">
+        <v>61.730617272674444</v>
+      </c>
+      <c r="F166">
+        <v>1.2580645161290323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
+        <v>37926</v>
+      </c>
+      <c r="B167">
+        <v>30.656666666666659</v>
+      </c>
+      <c r="C167">
+        <v>22.136666666666663</v>
+      </c>
+      <c r="D167">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E167">
+        <v>61.08689116084831</v>
+      </c>
+      <c r="F167">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <v>37956</v>
+      </c>
+      <c r="B168">
+        <v>31.85161290322581</v>
+      </c>
+      <c r="C168">
+        <v>20.677419354838708</v>
+      </c>
+      <c r="D168">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="E168">
+        <v>52.314454162270323</v>
+      </c>
+      <c r="F168">
+        <v>2.3225806451612905</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
+        <v>37987</v>
+      </c>
+      <c r="B169">
+        <v>32.71612903225806</v>
+      </c>
+      <c r="C169">
+        <v>20.345161290322583</v>
+      </c>
+      <c r="D169">
         <v>0</v>
       </c>
-      <c r="E158">
-        <v>53.582508519400463</v>
-      </c>
-      <c r="F158">
-        <v>2.2580645161290325</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159">
-        <v>33.196428571428569</v>
-      </c>
-      <c r="C159">
-        <v>20.778571428571432</v>
-      </c>
-      <c r="D159">
-        <v>2.1</v>
-      </c>
-      <c r="E159">
-        <v>49.367670140412031</v>
-      </c>
-      <c r="F159">
-        <v>2.8571428571428572</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160">
-        <v>36.78064516129033</v>
-      </c>
-      <c r="C160">
-        <v>23.248387096774191</v>
-      </c>
-      <c r="D160">
-        <v>17.8</v>
-      </c>
-      <c r="E160">
-        <v>46.661258275752921</v>
-      </c>
-      <c r="F160">
-        <v>2.5806451612903225</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161">
-        <v>37.940000000000012</v>
-      </c>
-      <c r="C161">
-        <v>26.326666666666668</v>
-      </c>
-      <c r="D161">
-        <v>14.6</v>
-      </c>
-      <c r="E161">
-        <v>51.958527588617265</v>
-      </c>
-      <c r="F161">
-        <v>2.2666666666666666</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162">
-        <v>36.900000000000006</v>
-      </c>
-      <c r="C162">
-        <v>26.048387096774196</v>
-      </c>
-      <c r="D162">
-        <v>93.1</v>
-      </c>
-      <c r="E162">
-        <v>54.392133823032637</v>
-      </c>
-      <c r="F162">
-        <v>2.6129032258064515</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163">
-        <v>35.000000000000007</v>
-      </c>
-      <c r="C163">
-        <v>25.336666666666666</v>
-      </c>
-      <c r="D163">
-        <v>26.5</v>
-      </c>
-      <c r="E163">
-        <v>57.853827274002917</v>
-      </c>
-      <c r="F163">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B164">
-        <v>35.438709677419354</v>
-      </c>
-      <c r="C164">
-        <v>24.832258064516132</v>
-      </c>
-      <c r="D164">
-        <v>77.799999999999983</v>
-      </c>
-      <c r="E164">
-        <v>54.61599238862275</v>
-      </c>
-      <c r="F164">
-        <v>2.4838709677419355</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165">
-        <v>33.41612903225807</v>
-      </c>
-      <c r="C165">
-        <v>23.890322580645162</v>
-      </c>
-      <c r="D165">
-        <v>152.69999999999996</v>
-      </c>
-      <c r="E165">
-        <v>57.79443138705328</v>
-      </c>
-      <c r="F165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166">
-        <v>34.243333333333339</v>
-      </c>
-      <c r="C166">
-        <v>23.953333333333333</v>
-      </c>
-      <c r="D166">
-        <v>88.899999999999991</v>
-      </c>
-      <c r="E166">
-        <v>55.351564593182147</v>
-      </c>
-      <c r="F166">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167">
-        <v>31.964516129032265</v>
-      </c>
-      <c r="C167">
-        <v>23.748387096774202</v>
-      </c>
-      <c r="D167">
-        <v>178.8</v>
-      </c>
-      <c r="E167">
-        <v>62.311094319406259</v>
-      </c>
-      <c r="F167">
-        <v>1.1290322580645162</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B168">
-        <v>31.383333333333336</v>
-      </c>
-      <c r="C168">
-        <v>22.266666666666666</v>
-      </c>
-      <c r="D168">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="E168">
-        <v>59.422067521582356</v>
-      </c>
-      <c r="F168">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B169">
-        <v>31.91935483870968</v>
-      </c>
-      <c r="C169">
-        <v>19.483870967741936</v>
-      </c>
-      <c r="D169">
-        <v>4.2</v>
-      </c>
       <c r="E169">
-        <v>48.536841419005484</v>
+        <v>48.631356090379434</v>
       </c>
       <c r="F169">
-        <v>1.8709677419354838</v>
+        <v>3.2903225806451615</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="A170" s="6">
+        <v>38018</v>
+      </c>
+      <c r="B170">
+        <v>34.755172413793098</v>
+      </c>
+      <c r="C170">
+        <v>20.641379310344831</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>44.263169439113952</v>
+      </c>
+      <c r="F170">
+        <v>3.5517241379310347</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>7</v>
+      <c r="A171" s="6">
+        <v>38047</v>
       </c>
       <c r="B171">
-        <v>32.777419354838706</v>
+        <v>38.267741935483876</v>
       </c>
       <c r="C171">
-        <v>20.36451612903226</v>
+        <v>23.216129032258067</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>48.509492667565944</v>
+        <v>42.754551423849101</v>
       </c>
       <c r="F171">
-        <v>3.129032258064516</v>
+        <v>3.6451612903225805</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>8</v>
+      <c r="A172" s="6">
+        <v>38078</v>
       </c>
       <c r="B172">
-        <v>35.471428571428568</v>
+        <v>38.083333333333336</v>
       </c>
       <c r="C172">
-        <v>22.478571428571431</v>
+        <v>26.286666666666672</v>
       </c>
       <c r="D172">
-        <v>4.7</v>
+        <v>71.899999999999991</v>
       </c>
       <c r="E172">
-        <v>47.416367723299736</v>
+        <v>51.621215124069479</v>
       </c>
       <c r="F172">
-        <v>3.5</v>
+        <v>2.7333333333333334</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>9</v>
+      <c r="A173" s="6">
+        <v>38108</v>
       </c>
       <c r="B173">
-        <v>36.964516129032255</v>
+        <v>32.680645161290322</v>
       </c>
       <c r="C173">
-        <v>23.403225806451619</v>
+        <v>23.732258064516127</v>
       </c>
       <c r="D173">
-        <v>14.9</v>
+        <v>329.59999999999997</v>
       </c>
       <c r="E173">
-        <v>46.274334101734169</v>
+        <v>60.00366295060568</v>
       </c>
       <c r="F173">
-        <v>3.5806451612903225</v>
+        <v>1.6451612903225807</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>10</v>
+      <c r="A174" s="6">
+        <v>38139</v>
       </c>
       <c r="B174">
-        <v>38.049999999999997</v>
+        <v>33.470000000000006</v>
       </c>
       <c r="C174">
-        <v>26.08</v>
+        <v>23.936666666666664</v>
       </c>
       <c r="D174">
-        <v>84.9</v>
+        <v>11.3</v>
       </c>
       <c r="E174">
-        <v>51.108540524791188</v>
+        <v>57.801754071309233</v>
       </c>
       <c r="F174">
-        <v>3.2333333333333334</v>
+        <v>2.1333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>11</v>
+      <c r="A175" s="6">
+        <v>38169</v>
       </c>
       <c r="B175">
-        <v>37.287096774193543</v>
+        <v>33.170967741935478</v>
       </c>
       <c r="C175">
-        <v>25.980645161290315</v>
+        <v>23.751612903225805</v>
       </c>
       <c r="D175">
-        <v>106.2</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E175">
-        <v>53.423805568376963</v>
+        <v>58.165635299002147</v>
       </c>
       <c r="F175">
-        <v>2.6774193548387095</v>
+        <v>1.4838709677419355</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
-        <v>12</v>
+      <c r="A176" s="6">
+        <v>38200</v>
       </c>
       <c r="B176">
-        <v>36.08666666666668</v>
+        <v>33.790322580645167</v>
       </c>
       <c r="C176">
-        <v>25.373333333333331</v>
+        <v>23.787096774193557</v>
       </c>
       <c r="D176">
-        <v>61.1</v>
+        <v>31.700000000000003</v>
       </c>
       <c r="E176">
-        <v>54.638717603573596</v>
+        <v>56.309428388646353</v>
       </c>
       <c r="F176">
-        <v>3.1</v>
+        <v>1.967741935483871</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
-        <v>13</v>
+      <c r="A177" s="6">
+        <v>38231</v>
       </c>
       <c r="B177">
-        <v>33.670967741935485</v>
+        <v>32.286666666666669</v>
       </c>
       <c r="C177">
-        <v>24.590322580645161</v>
+        <v>23.71</v>
       </c>
       <c r="D177">
-        <v>108.2</v>
+        <v>89.899999999999991</v>
       </c>
       <c r="E177">
-        <v>59.616827400265912</v>
+        <v>61.216015209385006</v>
       </c>
       <c r="F177">
-        <v>2.3548387096774195</v>
+        <v>1.5185185185185186</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>14</v>
+      <c r="A178" s="6">
+        <v>38261</v>
       </c>
       <c r="B178">
-        <v>32.645161290322591</v>
+        <v>31.370967741935491</v>
       </c>
       <c r="C178">
-        <v>24.074193548387097</v>
+        <v>22.50322580645161</v>
       </c>
       <c r="D178">
-        <v>119.80000000000003</v>
+        <v>140.19999999999996</v>
       </c>
       <c r="E178">
-        <v>61.039885641742643</v>
+        <v>59.816258287461977</v>
       </c>
       <c r="F178">
-        <v>1.8064516129032258</v>
+        <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
-        <v>15</v>
+      <c r="A179" s="6">
+        <v>38292</v>
       </c>
       <c r="B179">
-        <v>35.049999999999997</v>
+        <v>30.269999999999996</v>
       </c>
       <c r="C179">
-        <v>24.346666666666668</v>
+        <v>21.459999999999997</v>
       </c>
       <c r="D179">
-        <v>132</v>
+        <v>46.600000000000009</v>
       </c>
       <c r="E179">
-        <v>54.203010290873209</v>
+        <v>60.097846076194983</v>
       </c>
       <c r="F179">
-        <v>2.2666666666666666</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
-        <v>16</v>
+      <c r="A180" s="6">
+        <v>38322</v>
       </c>
       <c r="B180">
-        <v>31.670967741935481</v>
+        <v>31.748387096774191</v>
       </c>
       <c r="C180">
-        <v>23.35161290322581</v>
+        <v>19.899999999999995</v>
       </c>
       <c r="D180">
-        <v>267.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>61.730617272674444</v>
+        <v>50.014324419111738</v>
       </c>
       <c r="F180">
-        <v>1.2580645161290323</v>
+        <v>1.5806451612903225</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
-        <v>17</v>
+      <c r="A181" s="6">
+        <v>38353</v>
       </c>
       <c r="B181">
-        <v>30.656666666666659</v>
+        <v>33.138709677419357</v>
       </c>
       <c r="C181">
-        <v>22.136666666666663</v>
+        <v>20.370967741935484</v>
       </c>
       <c r="D181">
-        <v>39.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>61.08689116084831</v>
+        <v>47.445469139520398</v>
       </c>
       <c r="F181">
-        <v>1.7</v>
+        <v>2.4193548387096775</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>18</v>
+      <c r="A182" s="6">
+        <v>38384</v>
       </c>
       <c r="B182">
-        <v>31.85161290322581</v>
+        <v>34.296428571428571</v>
       </c>
       <c r="C182">
-        <v>20.677419354838708</v>
+        <v>20.442857142857143</v>
       </c>
       <c r="D182">
-        <v>10.799999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="E182">
-        <v>52.314454162270323</v>
+        <v>46.512448512079274</v>
       </c>
       <c r="F182">
-        <v>2.3225806451612905</v>
+        <v>2.9285714285714284</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
+      <c r="A183" s="6">
+        <v>38412</v>
+      </c>
+      <c r="B183">
+        <v>36.896774193548389</v>
+      </c>
+      <c r="C183">
+        <v>23.735483870967734</v>
+      </c>
+      <c r="D183">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="E183">
+        <v>47.493626986850735</v>
+      </c>
+      <c r="F183">
+        <v>3.225806451612903</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>7</v>
+      <c r="A184" s="6">
+        <v>38443</v>
       </c>
       <c r="B184">
-        <v>32.71612903225806</v>
+        <v>35.356666666666669</v>
       </c>
       <c r="C184">
-        <v>20.345161290322583</v>
+        <v>24.58666666666667</v>
       </c>
       <c r="D184">
+        <v>149.1</v>
+      </c>
+      <c r="E184">
+        <v>54.291794907476273</v>
+      </c>
+      <c r="F184">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="6">
+        <v>38473</v>
+      </c>
+      <c r="B185">
+        <v>37.893548387096779</v>
+      </c>
+      <c r="C185">
+        <v>25.745161290322589</v>
+      </c>
+      <c r="D185">
+        <v>27.9</v>
+      </c>
+      <c r="E185">
+        <v>50.609403335919133</v>
+      </c>
+      <c r="F185">
+        <v>2.129032258064516</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
+        <v>38504</v>
+      </c>
+      <c r="B186">
+        <v>35.224137931034484</v>
+      </c>
+      <c r="C186">
+        <v>24.77241379310345</v>
+      </c>
+      <c r="D186">
+        <v>36.199999999999996</v>
+      </c>
+      <c r="E186">
+        <v>55.159997703361064</v>
+      </c>
+      <c r="F186">
+        <v>2.4137931034482758</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
+        <v>38534</v>
+      </c>
+      <c r="B187">
+        <v>34.232258064516131</v>
+      </c>
+      <c r="C187">
+        <v>23.809677419354838</v>
+      </c>
+      <c r="D187">
+        <v>85.600000000000009</v>
+      </c>
+      <c r="E187">
+        <v>55.085962845069304</v>
+      </c>
+      <c r="F187">
+        <v>2.4516129032258065</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
+        <v>38565</v>
+      </c>
+      <c r="B188">
+        <v>34.245161290322571</v>
+      </c>
+      <c r="C188">
+        <v>23.516129032258064</v>
+      </c>
+      <c r="D188">
+        <v>226.7</v>
+      </c>
+      <c r="E188">
+        <v>53.971518700716558</v>
+      </c>
+      <c r="F188">
+        <v>1.7419354838709677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>38596</v>
+      </c>
+      <c r="B189">
+        <v>32.663333333333334</v>
+      </c>
+      <c r="C189">
+        <v>23.186666666666671</v>
+      </c>
+      <c r="D189">
+        <v>136.70000000000002</v>
+      </c>
+      <c r="E189">
+        <v>57.934241270643021</v>
+      </c>
+      <c r="F189">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
+        <v>38626</v>
+      </c>
+      <c r="B190">
+        <v>30.825806451612905</v>
+      </c>
+      <c r="C190">
+        <v>22.554838709677416</v>
+      </c>
+      <c r="D190">
+        <v>351.10000000000008</v>
+      </c>
+      <c r="E190">
+        <v>61.936393251725399</v>
+      </c>
+      <c r="F190">
+        <v>1.1290322580645162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
+        <v>38657</v>
+      </c>
+      <c r="B191">
+        <v>28.799999999999997</v>
+      </c>
+      <c r="C191">
+        <v>20.693103448275863</v>
+      </c>
+      <c r="D191">
+        <v>228</v>
+      </c>
+      <c r="E191">
+        <v>63.074556936499214</v>
+      </c>
+      <c r="F191">
+        <v>0.72413793103448276</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
+        <v>38687</v>
+      </c>
+      <c r="B192">
+        <v>29.503333333333334</v>
+      </c>
+      <c r="C192">
+        <v>19.866666666666671</v>
+      </c>
+      <c r="D192">
+        <v>85.6</v>
+      </c>
+      <c r="E192">
+        <v>57.132730437994425</v>
+      </c>
+      <c r="F192">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
+        <v>38718</v>
+      </c>
+      <c r="B193">
+        <v>31.606451612903225</v>
+      </c>
+      <c r="C193">
+        <v>19.287096774193543</v>
+      </c>
+      <c r="D193">
         <v>0</v>
       </c>
-      <c r="E184">
-        <v>48.631356090379434</v>
-      </c>
-      <c r="F184">
-        <v>3.2903225806451615</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185">
-        <v>34.755172413793098</v>
-      </c>
-      <c r="C185">
-        <v>20.641379310344831</v>
-      </c>
-      <c r="D185">
+      <c r="E193">
+        <v>48.847122944707884</v>
+      </c>
+      <c r="F193">
+        <v>1.903225806451613</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
+        <v>38749</v>
+      </c>
+      <c r="B194">
+        <v>33.667857142857144</v>
+      </c>
+      <c r="C194">
+        <v>18.917857142857144</v>
+      </c>
+      <c r="D194">
         <v>0</v>
       </c>
-      <c r="E185">
-        <v>44.263169439113952</v>
-      </c>
-      <c r="F185">
-        <v>3.5517241379310347</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186">
-        <v>38.267741935483876</v>
-      </c>
-      <c r="C186">
-        <v>23.216129032258067</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>42.754551423849101</v>
-      </c>
-      <c r="F186">
-        <v>3.6451612903225805</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B187">
-        <v>38.083333333333336</v>
-      </c>
-      <c r="C187">
-        <v>26.286666666666672</v>
-      </c>
-      <c r="D187">
-        <v>71.899999999999991</v>
-      </c>
-      <c r="E187">
-        <v>51.621215124069479</v>
-      </c>
-      <c r="F187">
-        <v>2.7333333333333334</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188">
-        <v>32.680645161290322</v>
-      </c>
-      <c r="C188">
-        <v>23.732258064516127</v>
-      </c>
-      <c r="D188">
-        <v>329.59999999999997</v>
-      </c>
-      <c r="E188">
-        <v>60.00366295060568</v>
-      </c>
-      <c r="F188">
-        <v>1.6451612903225807</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B189">
-        <v>33.470000000000006</v>
-      </c>
-      <c r="C189">
-        <v>23.936666666666664</v>
-      </c>
-      <c r="D189">
-        <v>11.3</v>
-      </c>
-      <c r="E189">
-        <v>57.801754071309233</v>
-      </c>
-      <c r="F189">
-        <v>2.1333333333333333</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B190">
-        <v>33.170967741935478</v>
-      </c>
-      <c r="C190">
-        <v>23.751612903225805</v>
-      </c>
-      <c r="D190">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="E190">
-        <v>58.165635299002147</v>
-      </c>
-      <c r="F190">
-        <v>1.4838709677419355</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B191">
-        <v>33.790322580645167</v>
-      </c>
-      <c r="C191">
-        <v>23.787096774193557</v>
-      </c>
-      <c r="D191">
-        <v>31.700000000000003</v>
-      </c>
-      <c r="E191">
-        <v>56.309428388646353</v>
-      </c>
-      <c r="F191">
-        <v>1.967741935483871</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192">
-        <v>32.286666666666669</v>
-      </c>
-      <c r="C192">
-        <v>23.71</v>
-      </c>
-      <c r="D192">
-        <v>89.899999999999991</v>
-      </c>
-      <c r="E192">
-        <v>61.216015209385006</v>
-      </c>
-      <c r="F192">
-        <v>1.5185185185185186</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B193">
-        <v>31.370967741935491</v>
-      </c>
-      <c r="C193">
-        <v>22.50322580645161</v>
-      </c>
-      <c r="D193">
-        <v>140.19999999999996</v>
-      </c>
-      <c r="E193">
-        <v>59.816258287461977</v>
-      </c>
-      <c r="F193">
-        <v>1.0333333333333334</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B194">
-        <v>30.269999999999996</v>
-      </c>
-      <c r="C194">
-        <v>21.459999999999997</v>
-      </c>
-      <c r="D194">
-        <v>46.600000000000009</v>
-      </c>
       <c r="E194">
-        <v>60.097846076194983</v>
+        <v>42.169625361636726</v>
       </c>
       <c r="F194">
-        <v>1.4</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
-        <v>18</v>
+      <c r="A195" s="6">
+        <v>38777</v>
       </c>
       <c r="B195">
-        <v>31.748387096774191</v>
+        <v>35.683870967741946</v>
       </c>
       <c r="C195">
-        <v>19.899999999999995</v>
+        <v>22.987096774193557</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="E195">
-        <v>50.014324419111738</v>
+        <v>48.404986146441168</v>
       </c>
       <c r="F195">
-        <v>1.5806451612903225</v>
+        <v>2.1071428571428572</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
+      <c r="A196" s="6">
+        <v>38808</v>
+      </c>
+      <c r="B196">
+        <v>37.260000000000005</v>
+      </c>
+      <c r="C196">
+        <v>24.84666666666666</v>
+      </c>
+      <c r="D196">
+        <v>47.099999999999994</v>
+      </c>
+      <c r="E196">
+        <v>49.45607845189695</v>
+      </c>
+      <c r="F196">
+        <f>AVERAGE(F193:F195)</f>
+        <v>2.0986943164362519</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="4" t="s">
-        <v>7</v>
+      <c r="A197" s="6">
+        <v>38838</v>
       </c>
       <c r="B197">
-        <v>33.138709677419357</v>
+        <v>36.00322580645161</v>
       </c>
       <c r="C197">
-        <v>20.370967741935484</v>
+        <v>24.354838709677416</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>162.5</v>
       </c>
       <c r="E197">
-        <v>47.445469139520398</v>
+        <v>51.76006078741289</v>
       </c>
       <c r="F197">
-        <v>2.4193548387096775</v>
+        <f t="shared" ref="F197:F198" si="0">AVERAGE(F194:F196)</f>
+        <v>2.1638504864311314</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="4" t="s">
-        <v>8</v>
+      <c r="A198" s="6">
+        <v>38869</v>
       </c>
       <c r="B198">
-        <v>34.296428571428571</v>
+        <v>34.04</v>
       </c>
       <c r="C198">
-        <v>20.442857142857143</v>
+        <v>23.866666666666664</v>
       </c>
       <c r="D198">
-        <v>1.8</v>
+        <v>54.79999999999999</v>
       </c>
       <c r="E198">
-        <v>46.512448512079274</v>
+        <v>55.769546532336072</v>
       </c>
       <c r="F198">
-        <v>2.9285714285714284</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B199">
-        <v>36.896774193548389</v>
-      </c>
-      <c r="C199">
-        <v>23.735483870967734</v>
-      </c>
-      <c r="D199">
-        <v>23.200000000000003</v>
-      </c>
-      <c r="E199">
-        <v>47.493626986850735</v>
-      </c>
-      <c r="F199">
-        <v>3.225806451612903</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B200">
-        <v>35.356666666666669</v>
-      </c>
-      <c r="C200">
-        <v>24.58666666666667</v>
-      </c>
-      <c r="D200">
-        <v>149.1</v>
-      </c>
-      <c r="E200">
-        <v>54.291794907476273</v>
-      </c>
-      <c r="F200">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B201">
-        <v>37.893548387096779</v>
-      </c>
-      <c r="C201">
-        <v>25.745161290322589</v>
-      </c>
-      <c r="D201">
-        <v>27.9</v>
-      </c>
-      <c r="E201">
-        <v>50.609403335919133</v>
-      </c>
-      <c r="F201">
-        <v>2.129032258064516</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B202">
-        <v>35.224137931034484</v>
-      </c>
-      <c r="C202">
-        <v>24.77241379310345</v>
-      </c>
-      <c r="D202">
-        <v>36.199999999999996</v>
-      </c>
-      <c r="E202">
-        <v>55.159997703361064</v>
-      </c>
-      <c r="F202">
-        <v>2.4137931034482758</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B203">
-        <v>34.232258064516131</v>
-      </c>
-      <c r="C203">
-        <v>23.809677419354838</v>
-      </c>
-      <c r="D203">
-        <v>85.600000000000009</v>
-      </c>
-      <c r="E203">
-        <v>55.085962845069304</v>
-      </c>
-      <c r="F203">
-        <v>2.4516129032258065</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B204">
-        <v>34.245161290322571</v>
-      </c>
-      <c r="C204">
-        <v>23.516129032258064</v>
-      </c>
-      <c r="D204">
-        <v>226.7</v>
-      </c>
-      <c r="E204">
-        <v>53.971518700716558</v>
-      </c>
-      <c r="F204">
-        <v>1.7419354838709677</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205">
-        <v>32.663333333333334</v>
-      </c>
-      <c r="C205">
-        <v>23.186666666666671</v>
-      </c>
-      <c r="D205">
-        <v>136.70000000000002</v>
-      </c>
-      <c r="E205">
-        <v>57.934241270643021</v>
-      </c>
-      <c r="F205">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B206">
-        <v>30.825806451612905</v>
-      </c>
-      <c r="C206">
-        <v>22.554838709677416</v>
-      </c>
-      <c r="D206">
-        <v>351.10000000000008</v>
-      </c>
-      <c r="E206">
-        <v>61.936393251725399</v>
-      </c>
-      <c r="F206">
-        <v>1.1290322580645162</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207">
-        <v>28.799999999999997</v>
-      </c>
-      <c r="C207">
-        <v>20.693103448275863</v>
-      </c>
-      <c r="D207">
-        <v>228</v>
-      </c>
-      <c r="E207">
-        <v>63.074556936499214</v>
-      </c>
-      <c r="F207">
-        <v>0.72413793103448276</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B208">
-        <v>29.503333333333334</v>
-      </c>
-      <c r="C208">
-        <v>19.866666666666671</v>
-      </c>
-      <c r="D208">
-        <v>85.6</v>
-      </c>
-      <c r="E208">
-        <v>57.132730437994425</v>
-      </c>
-      <c r="F208">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210">
-        <v>31.606451612903225</v>
-      </c>
-      <c r="C210">
-        <v>19.287096774193543</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210">
-        <v>48.847122944707884</v>
-      </c>
-      <c r="F210">
-        <v>1.903225806451613</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B211">
-        <v>33.667857142857144</v>
-      </c>
-      <c r="C211">
-        <v>18.917857142857144</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <v>42.169625361636726</v>
-      </c>
-      <c r="F211">
-        <v>2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B212">
-        <v>35.683870967741946</v>
-      </c>
-      <c r="C212">
-        <v>22.987096774193557</v>
-      </c>
-      <c r="D212">
-        <v>21.3</v>
-      </c>
-      <c r="E212">
-        <v>48.404986146441168</v>
-      </c>
-      <c r="F212">
-        <v>2.1071428571428572</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B213">
-        <v>37.260000000000005</v>
-      </c>
-      <c r="C213">
-        <v>24.84666666666666</v>
-      </c>
-      <c r="D213">
-        <v>47.099999999999994</v>
-      </c>
-      <c r="E213">
-        <v>49.45607845189695</v>
-      </c>
-      <c r="F213">
-        <f>AVERAGE(F210:F212)</f>
-        <v>2.0986943164362519</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214">
-        <v>36.00322580645161</v>
-      </c>
-      <c r="C214">
-        <v>24.354838709677416</v>
-      </c>
-      <c r="D214">
-        <v>162.5</v>
-      </c>
-      <c r="E214">
-        <v>51.76006078741289</v>
-      </c>
-      <c r="F214">
-        <f t="shared" ref="F214:F215" si="0">AVERAGE(F211:F213)</f>
-        <v>2.1638504864311314</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B215">
-        <v>34.04</v>
-      </c>
-      <c r="C215">
-        <v>23.866666666666664</v>
-      </c>
-      <c r="D215">
-        <v>54.79999999999999</v>
-      </c>
-      <c r="E215">
-        <v>55.769546532336072</v>
-      </c>
-      <c r="F215">
         <f t="shared" si="0"/>
         <v>2.1232292200034135</v>
       </c>
     </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
+        <v>38899</v>
+      </c>
+      <c r="B199">
+        <v>34.051612903225809</v>
+      </c>
+      <c r="C199">
+        <v>23.529032258064511</v>
+      </c>
+      <c r="D199">
+        <v>75.899999999999991</v>
+      </c>
+      <c r="E199">
+        <v>54.740277064430067</v>
+      </c>
+      <c r="F199">
+        <v>2.5454545454545454</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
+        <v>38930</v>
+      </c>
+      <c r="B200">
+        <v>33.280645161290323</v>
+      </c>
+      <c r="C200">
+        <v>23</v>
+      </c>
+      <c r="D200">
+        <v>118.8</v>
+      </c>
+      <c r="E200">
+        <v>55.255333994963749</v>
+      </c>
+      <c r="F200">
+        <v>2.6774193548387095</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
+        <v>38961</v>
+      </c>
+      <c r="B201">
+        <v>32.199999999999996</v>
+      </c>
+      <c r="C201">
+        <v>22.77333333333333</v>
+      </c>
+      <c r="D201">
+        <v>231.89999999999998</v>
+      </c>
+      <c r="E201">
+        <v>57.90215138873053</v>
+      </c>
+      <c r="F201">
+        <v>2.3666666666666667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
+        <v>38991</v>
+      </c>
+      <c r="B202">
+        <v>31.64193548387097</v>
+      </c>
+      <c r="C202">
+        <v>22.390322580645162</v>
+      </c>
+      <c r="D202">
+        <v>265</v>
+      </c>
+      <c r="E202">
+        <v>58.498415730975871</v>
+      </c>
+      <c r="F202">
+        <v>1.6774193548387097</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
+        <v>39022</v>
+      </c>
+      <c r="B203">
+        <v>30.173333333333336</v>
+      </c>
+      <c r="C203">
+        <v>21.753333333333334</v>
+      </c>
+      <c r="D203">
+        <v>69.100000000000009</v>
+      </c>
+      <c r="E203">
+        <v>61.056693895426029</v>
+      </c>
+      <c r="F203">
+        <v>1.6333333333333333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
+        <v>39052</v>
+      </c>
+      <c r="B204">
+        <v>30.280645161290327</v>
+      </c>
+      <c r="C204">
+        <v>19.183870967741932</v>
+      </c>
+      <c r="D204">
+        <v>1.5</v>
+      </c>
+      <c r="E204">
+        <v>51.895226074023796</v>
+      </c>
+      <c r="F204">
+        <v>2.032258064516129</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="6">
+        <v>39083</v>
+      </c>
+      <c r="B205">
+        <v>31.564516129032253</v>
+      </c>
+      <c r="C205">
+        <v>19.064516129032263</v>
+      </c>
+      <c r="D205">
+        <v>0.4</v>
+      </c>
+      <c r="E205">
+        <v>47.93944600799049</v>
+      </c>
+      <c r="F205">
+        <v>2.6129032258064515</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
+        <v>39114</v>
+      </c>
+      <c r="B206">
+        <v>33.910714285714285</v>
+      </c>
+      <c r="C206">
+        <v>20.203571428571426</v>
+      </c>
+      <c r="D206">
+        <v>0.6</v>
+      </c>
+      <c r="E206">
+        <v>44.964095400717163</v>
+      </c>
+      <c r="F206">
+        <v>2.9642857142857144</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
+        <v>39142</v>
+      </c>
+      <c r="B207">
+        <v>36.651612903225804</v>
+      </c>
+      <c r="C207">
+        <v>22.293548387096774</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>43.860779648268462</v>
+      </c>
+      <c r="F207">
+        <v>2.7096774193548385</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
+        <v>39173</v>
+      </c>
+      <c r="B208">
+        <v>36.893333333333331</v>
+      </c>
+      <c r="C208">
+        <v>24.613333333333333</v>
+      </c>
+      <c r="D208">
+        <v>54.4</v>
+      </c>
+      <c r="E208">
+        <v>49.857191956701591</v>
+      </c>
+      <c r="F208">
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
+        <v>39203</v>
+      </c>
+      <c r="B209">
+        <v>37.506451612903227</v>
+      </c>
+      <c r="C209">
+        <v>25.632258064516126</v>
+      </c>
+      <c r="D209">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E209">
+        <v>51.238002421657015</v>
+      </c>
+      <c r="F209">
+        <v>3.3225806451612905</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
+        <v>39234</v>
+      </c>
+      <c r="B210">
+        <v>34.736666666666665</v>
+      </c>
+      <c r="C210">
+        <v>24.563333333333333</v>
+      </c>
+      <c r="D210">
+        <v>38.4</v>
+      </c>
+      <c r="E210">
+        <v>56.239498773614876</v>
+      </c>
+      <c r="F210">
+        <v>3.1333333333333333</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
+        <v>39264</v>
+      </c>
+      <c r="B211">
+        <v>33.751612903225805</v>
+      </c>
+      <c r="C211">
+        <v>23.793548387096777</v>
+      </c>
+      <c r="D211">
+        <v>106.00000000000001</v>
+      </c>
+      <c r="E211">
+        <v>56.478883896139905</v>
+      </c>
+      <c r="F211">
+        <v>3.096774193548387</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
+        <v>39295</v>
+      </c>
+      <c r="B212">
+        <v>32.245161290322578</v>
+      </c>
+      <c r="C212">
+        <v>23.054838709677412</v>
+      </c>
+      <c r="D212">
+        <v>212.2</v>
+      </c>
+      <c r="E212">
+        <v>58.747909508984065</v>
+      </c>
+      <c r="F212">
+        <v>2.4193548387096775</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>39326</v>
+      </c>
+      <c r="B213">
+        <v>31.476666666666667</v>
+      </c>
+      <c r="C213">
+        <v>22.916666666666671</v>
+      </c>
+      <c r="D213">
+        <v>141.9</v>
+      </c>
+      <c r="E213">
+        <v>60.772172368715047</v>
+      </c>
+      <c r="F213">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
+        <v>39356</v>
+      </c>
+      <c r="B214">
+        <v>31.577419354838703</v>
+      </c>
+      <c r="C214">
+        <v>22.925806451612903</v>
+      </c>
+      <c r="D214">
+        <v>131.9</v>
+      </c>
+      <c r="E214">
+        <v>60.969374090496501</v>
+      </c>
+      <c r="F214">
+        <v>1.096774193548387</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
+        <v>39387</v>
+      </c>
+      <c r="B215">
+        <v>30.873333333333331</v>
+      </c>
+      <c r="C215">
+        <v>20.326666666666664</v>
+      </c>
+      <c r="D215">
+        <v>80.100000000000009</v>
+      </c>
+      <c r="E215">
+        <v>54.154359389904442</v>
+      </c>
+      <c r="F215">
+        <v>1.3</v>
+      </c>
+    </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
-        <v>13</v>
+      <c r="A216" s="6">
+        <v>39417</v>
       </c>
       <c r="B216">
-        <v>34.051612903225809</v>
+        <v>29.680645161290322</v>
       </c>
       <c r="C216">
-        <v>23.529032258064511</v>
+        <v>19.529032258064507</v>
       </c>
       <c r="D216">
-        <v>75.899999999999991</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="E216">
-        <v>54.740277064430067</v>
+        <v>55.81114568679105</v>
       </c>
       <c r="F216">
-        <v>2.5454545454545454</v>
+        <v>1.3548387096774193</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
-        <v>14</v>
+      <c r="A217" s="6">
+        <v>39448</v>
       </c>
       <c r="B217">
-        <v>33.280645161290323</v>
+        <v>31.148387096774197</v>
       </c>
       <c r="C217">
-        <v>23</v>
+        <v>18.800000000000004</v>
       </c>
       <c r="D217">
-        <v>118.8</v>
+        <v>2.6</v>
       </c>
       <c r="E217">
-        <v>55.255333994963749</v>
+        <v>48.158538669826264</v>
       </c>
       <c r="F217">
-        <v>2.6774193548387095</v>
+        <v>1.7096774193548387</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>15</v>
+      <c r="A218" s="6">
+        <v>39479</v>
       </c>
       <c r="B218">
-        <v>32.199999999999996</v>
+        <v>33.45862068965517</v>
       </c>
       <c r="C218">
-        <v>22.77333333333333</v>
+        <v>21.144827586206898</v>
       </c>
       <c r="D218">
-        <v>231.89999999999998</v>
+        <v>12.9</v>
       </c>
       <c r="E218">
-        <v>57.90215138873053</v>
+        <v>49.365409802164137</v>
       </c>
       <c r="F218">
-        <v>2.3666666666666667</v>
+        <v>2.6206896551724137</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
-        <v>16</v>
+      <c r="A219" s="6">
+        <v>39508</v>
       </c>
       <c r="B219">
-        <v>31.64193548387097</v>
+        <v>32.864516129032253</v>
       </c>
       <c r="C219">
-        <v>22.390322580645162</v>
+        <v>21.635483870967736</v>
       </c>
       <c r="D219">
-        <v>265</v>
+        <v>107.60000000000001</v>
       </c>
       <c r="E219">
-        <v>58.498415730975871</v>
+        <v>53.284900989049383</v>
       </c>
       <c r="F219">
-        <v>1.6774193548387097</v>
+        <v>2.064516129032258</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="4" t="s">
-        <v>17</v>
+      <c r="A220" s="6">
+        <v>39539</v>
       </c>
       <c r="B220">
-        <v>30.173333333333336</v>
+        <v>35.483333333333341</v>
       </c>
       <c r="C220">
-        <v>21.753333333333334</v>
+        <v>24.193333333333328</v>
       </c>
       <c r="D220">
-        <v>69.100000000000009</v>
+        <v>52.3</v>
       </c>
       <c r="E220">
-        <v>61.056693895426029</v>
+        <v>52.546506867180696</v>
       </c>
       <c r="F220">
-        <v>1.6333333333333333</v>
+        <v>2.0333333333333332</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="4" t="s">
-        <v>18</v>
+      <c r="A221" s="6">
+        <v>39569</v>
       </c>
       <c r="B221">
-        <v>30.280645161290327</v>
+        <v>35.961290322580652</v>
       </c>
       <c r="C221">
-        <v>19.183870967741932</v>
+        <v>24.28064516129032</v>
       </c>
       <c r="D221">
-        <v>1.5</v>
+        <v>182.29999999999998</v>
       </c>
       <c r="E221">
-        <v>51.895226074023796</v>
+        <v>51.461111134548169</v>
       </c>
       <c r="F221">
-        <v>2.032258064516129</v>
+        <v>2.161290322580645</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
+      <c r="A222" s="6">
+        <v>39600</v>
+      </c>
+      <c r="B222">
+        <v>33.083333333333329</v>
+      </c>
+      <c r="C222">
+        <v>23.229999999999986</v>
+      </c>
+      <c r="D222">
+        <v>103.1</v>
+      </c>
+      <c r="E222">
+        <v>56.569595321821126</v>
+      </c>
+      <c r="F222">
+        <v>1.5333333333333334</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
-        <v>7</v>
+      <c r="A223" s="6">
+        <v>39630</v>
       </c>
       <c r="B223">
-        <v>31.564516129032253</v>
+        <v>33.709677419354833</v>
       </c>
       <c r="C223">
-        <v>19.064516129032263</v>
+        <v>23.390322580645162</v>
       </c>
       <c r="D223">
-        <v>0.4</v>
+        <v>105.4</v>
       </c>
       <c r="E223">
-        <v>47.93944600799049</v>
+        <v>55.34075929361147</v>
       </c>
       <c r="F223">
-        <v>2.6129032258064515</v>
+        <v>1.1935483870967742</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>8</v>
+      <c r="A224" s="6">
+        <v>39661</v>
       </c>
       <c r="B224">
-        <v>33.910714285714285</v>
+        <v>31.5</v>
       </c>
       <c r="C224">
-        <v>20.203571428571426</v>
+        <v>22.694736842105261</v>
       </c>
       <c r="D224">
-        <v>0.6</v>
+        <v>189.8</v>
       </c>
       <c r="E224">
-        <v>44.964095400717163</v>
+        <v>59.922475805615441</v>
       </c>
       <c r="F224">
-        <v>2.9642857142857144</v>
+        <v>1.4210526315789473</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="4" t="s">
-        <v>9</v>
+      <c r="A225" s="6">
+        <v>39692</v>
       </c>
       <c r="B225">
-        <v>36.651612903225804</v>
+        <v>31.98</v>
       </c>
       <c r="C225">
-        <v>22.293548387096774</v>
+        <v>22.716666666666654</v>
       </c>
       <c r="D225">
+        <v>33.300000000000004</v>
+      </c>
+      <c r="E225">
+        <v>58.392742588983666</v>
+      </c>
+      <c r="F225">
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
+        <v>39722</v>
+      </c>
+      <c r="B226">
+        <v>31.296774193548384</v>
+      </c>
+      <c r="C226">
+        <v>22.325806451612902</v>
+      </c>
+      <c r="D226">
+        <v>203.7</v>
+      </c>
+      <c r="E226">
+        <v>59.584241776913423</v>
+      </c>
+      <c r="F226">
+        <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
+        <v>39753</v>
+      </c>
+      <c r="B227">
+        <v>30.523333333333337</v>
+      </c>
+      <c r="C227">
+        <v>20.906666666666659</v>
+      </c>
+      <c r="D227">
+        <v>150.39999999999998</v>
+      </c>
+      <c r="E227">
+        <v>57.978056674251548</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
+        <v>39783</v>
+      </c>
+      <c r="B228">
+        <v>29.377419354838715</v>
+      </c>
+      <c r="C228">
+        <v>19.651612903225807</v>
+      </c>
+      <c r="D228">
+        <v>3.6</v>
+      </c>
+      <c r="E228">
+        <v>56.68424300458436</v>
+      </c>
+      <c r="F228">
+        <v>1.1935483870967742</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="6">
+        <v>39814</v>
+      </c>
+      <c r="B229">
+        <v>30.860000000000007</v>
+      </c>
+      <c r="C229">
+        <v>19.209999999999997</v>
+      </c>
+      <c r="D229">
         <v>0</v>
       </c>
-      <c r="E225">
-        <v>43.860779648268462</v>
-      </c>
-      <c r="F225">
-        <v>2.7096774193548385</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B226">
-        <v>36.893333333333331</v>
-      </c>
-      <c r="C226">
-        <v>24.613333333333333</v>
-      </c>
-      <c r="D226">
-        <v>54.4</v>
-      </c>
-      <c r="E226">
-        <v>49.857191956701591</v>
-      </c>
-      <c r="F226">
-        <v>2.5333333333333332</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227">
-        <v>37.506451612903227</v>
-      </c>
-      <c r="C227">
-        <v>25.632258064516126</v>
-      </c>
-      <c r="D227">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E227">
-        <v>51.238002421657015</v>
-      </c>
-      <c r="F227">
-        <v>3.3225806451612905</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B228">
-        <v>34.736666666666665</v>
-      </c>
-      <c r="C228">
-        <v>24.563333333333333</v>
-      </c>
-      <c r="D228">
-        <v>38.4</v>
-      </c>
-      <c r="E228">
-        <v>56.239498773614876</v>
-      </c>
-      <c r="F228">
-        <v>3.1333333333333333</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B229">
-        <v>33.751612903225805</v>
-      </c>
-      <c r="C229">
-        <v>23.793548387096777</v>
-      </c>
-      <c r="D229">
-        <v>106.00000000000001</v>
-      </c>
       <c r="E229">
-        <v>56.478883896139905</v>
+        <v>50.238490856437039</v>
       </c>
       <c r="F229">
-        <v>3.096774193548387</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
-        <v>14</v>
+      <c r="A230" s="6">
+        <v>39845</v>
       </c>
       <c r="B230">
-        <v>32.245161290322578</v>
+        <v>34.610714285714273</v>
       </c>
       <c r="C230">
-        <v>23.054838709677412</v>
+        <v>19.896428571428569</v>
       </c>
       <c r="D230">
-        <v>212.2</v>
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>58.747909508984065</v>
+        <v>42.377425614333859</v>
       </c>
       <c r="F230">
-        <v>2.4193548387096775</v>
+        <v>1.3928571428571428</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="4" t="s">
-        <v>15</v>
+      <c r="A231" s="6">
+        <v>39873</v>
       </c>
       <c r="B231">
-        <v>31.476666666666667</v>
+        <v>35.50322580645161</v>
       </c>
       <c r="C231">
-        <v>22.916666666666671</v>
+        <v>23.067741935483863</v>
       </c>
       <c r="D231">
-        <v>141.9</v>
+        <v>5.7</v>
       </c>
       <c r="E231">
-        <v>60.772172368715047</v>
+        <v>49.583866939555982</v>
       </c>
       <c r="F231">
-        <v>1.5</v>
+        <v>1.7419354838709677</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
-        <v>16</v>
+      <c r="A232" s="6">
+        <v>39904</v>
       </c>
       <c r="B232">
-        <v>31.577419354838703</v>
+        <v>37.486666666666672</v>
       </c>
       <c r="C232">
-        <v>22.925806451612903</v>
+        <v>25.189999999999998</v>
       </c>
       <c r="D232">
-        <v>131.9</v>
+        <v>75.8</v>
       </c>
       <c r="E232">
-        <v>60.969374090496501</v>
+        <v>50.096869729799451</v>
       </c>
       <c r="F232">
-        <v>1.096774193548387</v>
+        <v>2.4333333333333331</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
-        <v>17</v>
+      <c r="A233" s="6">
+        <v>39934</v>
       </c>
       <c r="B233">
-        <v>30.873333333333331</v>
+        <v>36.651612903225811</v>
       </c>
       <c r="C233">
-        <v>20.326666666666664</v>
+        <v>25.380645161290321</v>
       </c>
       <c r="D233">
-        <v>80.100000000000009</v>
+        <v>122.4</v>
       </c>
       <c r="E233">
-        <v>54.154359389904442</v>
+        <v>53.179362757612864</v>
       </c>
       <c r="F233">
-        <v>1.3</v>
+        <v>3.774193548387097</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="4" t="s">
-        <v>18</v>
+      <c r="A234" s="6">
+        <v>39965</v>
       </c>
       <c r="B234">
-        <v>29.680645161290322</v>
+        <v>34.368965517241378</v>
       </c>
       <c r="C234">
-        <v>19.529032258064507</v>
+        <v>24.641379310344828</v>
       </c>
       <c r="D234">
-        <v>132.69999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E234">
-        <v>55.81114568679105</v>
+        <v>57.322017585436335</v>
       </c>
       <c r="F234">
-        <v>1.3548387096774193</v>
+        <v>4.4827586206896548</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
+      <c r="A235" s="6">
+        <v>39995</v>
+      </c>
+      <c r="B235">
+        <v>34.009677419354837</v>
+      </c>
+      <c r="C235">
+        <v>24.190322580645155</v>
+      </c>
+      <c r="D235">
+        <v>44.7</v>
+      </c>
+      <c r="E235">
+        <v>56.990887301753425</v>
+      </c>
+      <c r="F235">
+        <v>5.064516129032258</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="4" t="s">
-        <v>7</v>
+      <c r="A236" s="6">
+        <v>40026</v>
       </c>
       <c r="B236">
-        <v>31.148387096774197</v>
+        <v>33.587096774193554</v>
       </c>
       <c r="C236">
-        <v>18.800000000000004</v>
+        <v>24.07096774193549</v>
       </c>
       <c r="D236">
-        <v>2.6</v>
+        <v>153.79999999999998</v>
       </c>
       <c r="E236">
-        <v>48.158538669826264</v>
+        <v>58.120421225144106</v>
       </c>
       <c r="F236">
-        <v>1.7096774193548387</v>
+        <v>3.774193548387097</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
-        <v>8</v>
+      <c r="A237" s="6">
+        <v>40057</v>
       </c>
       <c r="B237">
-        <v>33.45862068965517</v>
+        <v>32.9</v>
       </c>
       <c r="C237">
-        <v>21.144827586206898</v>
+        <v>23.733333333333331</v>
       </c>
       <c r="D237">
-        <v>12.9</v>
+        <v>85.199999999999989</v>
       </c>
       <c r="E237">
-        <v>49.365409802164137</v>
+        <v>58.936028914448841</v>
       </c>
       <c r="F237">
-        <v>2.6206896551724137</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
-        <v>9</v>
+      <c r="A238" s="6">
+        <v>40087</v>
       </c>
       <c r="B238">
-        <v>32.864516129032253</v>
+        <v>33.993548387096773</v>
       </c>
       <c r="C238">
-        <v>21.635483870967736</v>
+        <v>22.974193548387092</v>
       </c>
       <c r="D238">
-        <v>107.60000000000001</v>
+        <v>103.2</v>
       </c>
       <c r="E238">
-        <v>53.284900989049383</v>
+        <v>53.047534732297649</v>
       </c>
       <c r="F238">
+        <v>2.4838709677419355</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="6">
+        <v>40118</v>
+      </c>
+      <c r="B239">
+        <v>30.365517241379312</v>
+      </c>
+      <c r="C239">
+        <v>22.268965517241377</v>
+      </c>
+      <c r="D239">
+        <v>122.9</v>
+      </c>
+      <c r="E239">
+        <v>62.496956666223852</v>
+      </c>
+      <c r="F239">
+        <v>1.5517241379310345</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
+        <v>40148</v>
+      </c>
+      <c r="B240">
+        <v>29.990322580645159</v>
+      </c>
+      <c r="C240">
+        <v>21.009677419354837</v>
+      </c>
+      <c r="D240">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E240">
+        <v>59.224323230316216</v>
+      </c>
+      <c r="F240">
         <v>2.064516129032258</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B239">
-        <v>35.483333333333341</v>
-      </c>
-      <c r="C239">
-        <v>24.193333333333328</v>
-      </c>
-      <c r="D239">
-        <v>52.3</v>
-      </c>
-      <c r="E239">
-        <v>52.546506867180696</v>
-      </c>
-      <c r="F239">
-        <v>2.0333333333333332</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B240">
-        <v>35.961290322580652</v>
-      </c>
-      <c r="C240">
-        <v>24.28064516129032</v>
-      </c>
-      <c r="D240">
-        <v>182.29999999999998</v>
-      </c>
-      <c r="E240">
-        <v>51.461111134548169</v>
-      </c>
-      <c r="F240">
-        <v>2.161290322580645</v>
-      </c>
-    </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
-        <v>12</v>
+      <c r="A241" s="6">
+        <v>40179</v>
       </c>
       <c r="B241">
-        <v>33.083333333333329</v>
+        <v>32.303225806451607</v>
       </c>
       <c r="C241">
-        <v>23.229999999999986</v>
+        <v>20.28709677419355</v>
       </c>
       <c r="D241">
-        <v>103.1</v>
+        <v>0</v>
       </c>
       <c r="E241">
-        <v>56.569595321821126</v>
+        <v>49.526027162520855</v>
       </c>
       <c r="F241">
-        <v>1.5333333333333334</v>
+        <v>2.935483870967742</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
-        <v>13</v>
+      <c r="A242" s="6">
+        <v>40210</v>
       </c>
       <c r="B242">
-        <v>33.709677419354833</v>
+        <v>35.296428571428571</v>
       </c>
       <c r="C242">
-        <v>23.390322580645162</v>
+        <v>20.828571428571422</v>
       </c>
       <c r="D242">
-        <v>105.4</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>55.34075929361147</v>
+        <v>43.187169468262432</v>
       </c>
       <c r="F242">
-        <v>1.1935483870967742</v>
+        <v>3.1071428571428572</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="4" t="s">
-        <v>14</v>
+      <c r="A243" s="6">
+        <v>40238</v>
       </c>
       <c r="B243">
-        <v>31.5</v>
+        <v>38.429032258064524</v>
       </c>
       <c r="C243">
-        <v>22.694736842105261</v>
+        <v>23.183870967741932</v>
       </c>
       <c r="D243">
-        <v>189.8</v>
+        <v>1.2</v>
       </c>
       <c r="E243">
-        <v>59.922475805615441</v>
+        <v>42.194171237052466</v>
       </c>
       <c r="F243">
-        <v>1.4210526315789473</v>
+        <v>2.4838709677419355</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="4" t="s">
-        <v>15</v>
+      <c r="A244" s="6">
+        <v>40269</v>
       </c>
       <c r="B244">
-        <v>31.98</v>
+        <v>39.529999999999987</v>
       </c>
       <c r="C244">
-        <v>22.716666666666654</v>
+        <v>26.716666666666665</v>
       </c>
       <c r="D244">
-        <v>33.300000000000004</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E244">
-        <v>58.392742588983666</v>
+        <v>48.875821900240389</v>
       </c>
       <c r="F244">
-        <v>1.4333333333333333</v>
+        <v>2.4333333333333331</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="4" t="s">
-        <v>16</v>
+      <c r="A245" s="6">
+        <v>40299</v>
       </c>
       <c r="B245">
-        <v>31.296774193548384</v>
+        <v>37.738709677419358</v>
       </c>
       <c r="C245">
-        <v>22.325806451612902</v>
+        <v>25.774193548387096</v>
       </c>
       <c r="D245">
-        <v>203.7</v>
+        <v>167.9</v>
       </c>
       <c r="E245">
-        <v>59.584241776913423</v>
+        <v>51.500966210647285</v>
       </c>
       <c r="F245">
-        <v>0.93548387096774188</v>
+        <v>1.7419354838709677</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
-        <v>17</v>
+      <c r="A246" s="6">
+        <v>40330</v>
       </c>
       <c r="B246">
-        <v>30.523333333333337</v>
+        <v>34.351724137931043</v>
       </c>
       <c r="C246">
-        <v>20.906666666666659</v>
+        <v>24.586206896551722</v>
       </c>
       <c r="D246">
-        <v>150.39999999999998</v>
+        <v>98.100000000000009</v>
       </c>
       <c r="E246">
-        <v>57.978056674251548</v>
+        <v>57.321290108785611</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>1.4827586206896552</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
-        <v>18</v>
+      <c r="A247" s="6">
+        <v>40360</v>
       </c>
       <c r="B247">
-        <v>29.377419354838715</v>
+        <v>32.541935483870965</v>
       </c>
       <c r="C247">
-        <v>19.651612903225807</v>
+        <v>23.438709677419357</v>
       </c>
       <c r="D247">
-        <v>3.6</v>
+        <v>136.69999999999996</v>
       </c>
       <c r="E247">
-        <v>56.68424300458436</v>
+        <v>59.095667176676926</v>
       </c>
       <c r="F247">
-        <v>1.1935483870967742</v>
+        <v>1.4193548387096775</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
+      <c r="A248" s="6">
+        <v>40391</v>
+      </c>
+      <c r="B248">
+        <v>31.909677419354839</v>
+      </c>
+      <c r="C248">
+        <v>23.248387096774195</v>
+      </c>
+      <c r="D248">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="E248">
+        <v>61.013745766348158</v>
+      </c>
+      <c r="F248">
+        <v>1.064516129032258</v>
+      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="4" t="s">
-        <v>7</v>
+      <c r="A249" s="6">
+        <v>40422</v>
       </c>
       <c r="B249">
-        <v>30.860000000000007</v>
+        <v>32.089999999999996</v>
       </c>
       <c r="C249">
-        <v>19.209999999999997</v>
+        <v>23.153333333333332</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>73.2</v>
       </c>
       <c r="E249">
-        <v>50.238490856437039</v>
+        <v>59.526430408064456</v>
       </c>
       <c r="F249">
-        <v>1.3</v>
+        <v>1.3666666666666667</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="4" t="s">
-        <v>8</v>
+      <c r="A250" s="6">
+        <v>40452</v>
       </c>
       <c r="B250">
-        <v>34.610714285714273</v>
+        <v>32.909677419354836</v>
       </c>
       <c r="C250">
-        <v>19.896428571428569</v>
+        <v>23.254838709677422</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E250">
-        <v>42.377425614333859</v>
+        <v>57.296209520532976</v>
       </c>
       <c r="F250">
-        <v>1.3928571428571428</v>
+        <v>1.4516129032258065</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="4" t="s">
-        <v>9</v>
+      <c r="A251" s="6">
+        <v>40483</v>
       </c>
       <c r="B251">
-        <v>35.50322580645161</v>
+        <v>29.053333333333324</v>
       </c>
       <c r="C251">
-        <v>23.067741935483863</v>
+        <v>21.916666666666675</v>
       </c>
       <c r="D251">
-        <v>5.7</v>
+        <v>310.40000000000003</v>
       </c>
       <c r="E251">
-        <v>49.583866939555982</v>
+        <v>65.806182568109946</v>
       </c>
       <c r="F251">
-        <v>1.7419354838709677</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="4" t="s">
-        <v>10</v>
+      <c r="A252" s="5">
+        <v>40513</v>
       </c>
       <c r="B252">
-        <v>37.486666666666672</v>
+        <v>28.325806451612902</v>
       </c>
       <c r="C252">
-        <v>25.189999999999998</v>
+        <v>20.499999999999996</v>
       </c>
       <c r="D252">
-        <v>75.8</v>
+        <v>87.199999999999989</v>
       </c>
       <c r="E252">
-        <v>50.096869729799451</v>
+        <v>63.401142114398851</v>
       </c>
       <c r="F252">
-        <v>2.4333333333333331</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B253">
-        <v>36.651612903225811</v>
-      </c>
-      <c r="C253">
-        <v>25.380645161290321</v>
-      </c>
-      <c r="D253">
-        <v>122.4</v>
-      </c>
-      <c r="E253">
-        <v>53.179362757612864</v>
-      </c>
-      <c r="F253">
-        <v>3.774193548387097</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B254">
-        <v>34.368965517241378</v>
-      </c>
-      <c r="C254">
-        <v>24.641379310344828</v>
-      </c>
-      <c r="D254">
-        <v>65.8</v>
-      </c>
-      <c r="E254">
-        <v>57.322017585436335</v>
-      </c>
-      <c r="F254">
-        <v>4.4827586206896548</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B255">
-        <v>34.009677419354837</v>
-      </c>
-      <c r="C255">
-        <v>24.190322580645155</v>
-      </c>
-      <c r="D255">
-        <v>44.7</v>
-      </c>
-      <c r="E255">
-        <v>56.990887301753425</v>
-      </c>
-      <c r="F255">
-        <v>5.064516129032258</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B256">
-        <v>33.587096774193554</v>
-      </c>
-      <c r="C256">
-        <v>24.07096774193549</v>
-      </c>
-      <c r="D256">
-        <v>153.79999999999998</v>
-      </c>
-      <c r="E256">
-        <v>58.120421225144106</v>
-      </c>
-      <c r="F256">
-        <v>3.774193548387097</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257">
-        <v>32.9</v>
-      </c>
-      <c r="C257">
-        <v>23.733333333333331</v>
-      </c>
-      <c r="D257">
-        <v>85.199999999999989</v>
-      </c>
-      <c r="E257">
-        <v>58.936028914448841</v>
-      </c>
-      <c r="F257">
-        <v>3.0333333333333332</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B258">
-        <v>33.993548387096773</v>
-      </c>
-      <c r="C258">
-        <v>22.974193548387092</v>
-      </c>
-      <c r="D258">
-        <v>103.2</v>
-      </c>
-      <c r="E258">
-        <v>53.047534732297649</v>
-      </c>
-      <c r="F258">
-        <v>2.4838709677419355</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B259">
-        <v>30.365517241379312</v>
-      </c>
-      <c r="C259">
-        <v>22.268965517241377</v>
-      </c>
-      <c r="D259">
-        <v>122.9</v>
-      </c>
-      <c r="E259">
-        <v>62.496956666223852</v>
-      </c>
-      <c r="F259">
-        <v>1.5517241379310345</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B260">
-        <v>29.990322580645159</v>
-      </c>
-      <c r="C260">
-        <v>21.009677419354837</v>
-      </c>
-      <c r="D260">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E260">
-        <v>59.224323230316216</v>
-      </c>
-      <c r="F260">
-        <v>2.064516129032258</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B262">
-        <v>32.303225806451607</v>
-      </c>
-      <c r="C262">
-        <v>20.28709677419355</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
-        <v>49.526027162520855</v>
-      </c>
-      <c r="F262">
-        <v>2.935483870967742</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B263">
-        <v>35.296428571428571</v>
-      </c>
-      <c r="C263">
-        <v>20.828571428571422</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263">
-        <v>43.187169468262432</v>
-      </c>
-      <c r="F263">
-        <v>3.1071428571428572</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B264">
-        <v>38.429032258064524</v>
-      </c>
-      <c r="C264">
-        <v>23.183870967741932</v>
-      </c>
-      <c r="D264">
-        <v>1.2</v>
-      </c>
-      <c r="E264">
-        <v>42.194171237052466</v>
-      </c>
-      <c r="F264">
-        <v>2.4838709677419355</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B265">
-        <v>39.529999999999987</v>
-      </c>
-      <c r="C265">
-        <v>26.716666666666665</v>
-      </c>
-      <c r="D265">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E265">
-        <v>48.875821900240389</v>
-      </c>
-      <c r="F265">
-        <v>2.4333333333333331</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B266">
-        <v>37.738709677419358</v>
-      </c>
-      <c r="C266">
-        <v>25.774193548387096</v>
-      </c>
-      <c r="D266">
-        <v>167.9</v>
-      </c>
-      <c r="E266">
-        <v>51.500966210647285</v>
-      </c>
-      <c r="F266">
-        <v>1.7419354838709677</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B267">
-        <v>34.351724137931043</v>
-      </c>
-      <c r="C267">
-        <v>24.586206896551722</v>
-      </c>
-      <c r="D267">
-        <v>98.100000000000009</v>
-      </c>
-      <c r="E267">
-        <v>57.321290108785611</v>
-      </c>
-      <c r="F267">
-        <v>1.4827586206896552</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B268">
-        <v>32.541935483870965</v>
-      </c>
-      <c r="C268">
-        <v>23.438709677419357</v>
-      </c>
-      <c r="D268">
-        <v>136.69999999999996</v>
-      </c>
-      <c r="E268">
-        <v>59.095667176676926</v>
-      </c>
-      <c r="F268">
-        <v>1.4193548387096775</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B269">
-        <v>31.909677419354839</v>
-      </c>
-      <c r="C269">
-        <v>23.248387096774195</v>
-      </c>
-      <c r="D269">
-        <v>273.89999999999998</v>
-      </c>
-      <c r="E269">
-        <v>61.013745766348158</v>
-      </c>
-      <c r="F269">
-        <v>1.064516129032258</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270">
-        <v>32.089999999999996</v>
-      </c>
-      <c r="C270">
-        <v>23.153333333333332</v>
-      </c>
-      <c r="D270">
-        <v>73.2</v>
-      </c>
-      <c r="E270">
-        <v>59.526430408064456</v>
-      </c>
-      <c r="F270">
-        <v>1.3666666666666667</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B271">
-        <v>32.909677419354836</v>
-      </c>
-      <c r="C271">
-        <v>23.254838709677422</v>
-      </c>
-      <c r="D271">
-        <v>133</v>
-      </c>
-      <c r="E271">
-        <v>57.296209520532976</v>
-      </c>
-      <c r="F271">
-        <v>1.4516129032258065</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B272">
-        <v>29.053333333333324</v>
-      </c>
-      <c r="C272">
-        <v>21.916666666666675</v>
-      </c>
-      <c r="D272">
-        <v>310.40000000000003</v>
-      </c>
-      <c r="E272">
-        <v>65.806182568109946</v>
-      </c>
-      <c r="F272">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B273">
-        <v>28.325806451612902</v>
-      </c>
-      <c r="C273">
-        <v>20.499999999999996</v>
-      </c>
-      <c r="D273">
-        <v>87.199999999999989</v>
-      </c>
-      <c r="E273">
-        <v>63.401142114398851</v>
-      </c>
-      <c r="F273">
         <v>4.5483870967741939</v>
       </c>
     </row>

--- a/a_data.xlsx
+++ b/a_data.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
